--- a/data/CSVs Others/indicadores.xlsx
+++ b/data/CSVs Others/indicadores.xlsx
@@ -1,394 +1,926 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/javier/PycharmProjects/tfm-datascience/oCSVs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/javier/PycharmProjects/tfm-datascience/data/CSVs Others/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B03DED3-884C-3945-88DF-54A6EA516F5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1CC7BEBC-D4BA-E946-B9C2-979DF6CCF15E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440"/>
+    <workbookView xWindow="1500" yWindow="1320" windowWidth="27640" windowHeight="16940"/>
   </bookViews>
   <sheets>
-    <sheet name="indicadores" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="2" r:id="rId1"/>
+    <sheet name="indicadores" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
+  <pivotCaches>
+    <pivotCache cacheId="31" r:id="rId3"/>
+  </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="123">
-  <si>
-    <t>Indicador	Tema	SubTema	Ind_Esp	Ind_Val</t>
-  </si>
-  <si>
-    <t>1	Población	Estructura de la población	Población residente	Poblaci√≥ resident</t>
-  </si>
-  <si>
-    <t>2	Población	Estructura de la población	Densidad de población	Densitat de poblaci√≥</t>
-  </si>
-  <si>
-    <t>3	Población	Estructura de la población	Variación anual de la población	Variaci√≥ anual de la poblaci√≥</t>
-  </si>
-  <si>
-    <t>4	Población	Estructura de la población	Relación de masculinidad de la población	Relaci√≥ de masculinitat de la poblaci√≥</t>
-  </si>
-  <si>
-    <t>5	Población	Estructura de la población	Proporción de población menor de 16 años	Proporci√≥ de poblaci√≥ menor de 16 anys</t>
-  </si>
-  <si>
-    <t>6	Población	Estructura de la población	Proporción de población de 16 a 64 años	Proporci√≥ de poblaci√≥ de 16 a 64 anys</t>
-  </si>
-  <si>
-    <t>7	Población	Estructura de la población	Proporción de población mayor de 64 años	Proporci√≥ de poblaci√≥ major de 64 anys</t>
-  </si>
-  <si>
-    <t>8	Población	Estructura de la población	Población de 0 a 2 años	Poblaci√≥ de 0 a 2 anys</t>
-  </si>
-  <si>
-    <t>9	Población	Estructura de la población	Población de 3 a 5 años	Poblaci√≥ de 3 a 5 anys</t>
-  </si>
-  <si>
-    <t>10	Población	Estructura de la población	Población de 6 a 11 años	Poblaci√≥ de 6 a 11 anys</t>
-  </si>
-  <si>
-    <t>11	Población	Estructura de la población	Población de 12 a 15 años	Poblaci√≥ de 12 a 15 anys</t>
-  </si>
-  <si>
-    <t>12	Población	Estructura de la población	Proporción de población menor de 18 años	Proporci√≥ de poblaci√≥ menor de 18 anys</t>
-  </si>
-  <si>
-    <t>13	Población	Estructura de la población	Edad media	Edat mitjana</t>
-  </si>
-  <si>
-    <t>14	Población	Estructura de la población	Edad media de los hombres	Edat mitjana dels homes</t>
-  </si>
-  <si>
-    <t>15	Población	Estructura de la población	Edad media de las mujeres	Edat mitjana de les dones</t>
-  </si>
-  <si>
-    <t>16	Población	Estructura de la población	Índice de envejecimiento	√çndex d'envelliment</t>
-  </si>
-  <si>
-    <t>17	Población	Estructura de la población	Índice de sobre envejecimiento	√çndex de sobrenvelliment</t>
-  </si>
-  <si>
-    <t>18	Población	Estructura de la población	Índice demográfico de dependencia global	√çndex demogr√†fic de depend√®ncia global</t>
-  </si>
-  <si>
-    <t>19	Población	Estructura de la población	Raó de progresividad demográfica	Ra√≥ de progressivitat demogr√†fica</t>
-  </si>
-  <si>
-    <t>20	Población	Estructura de la población	Índice de estructura de la población en edad activa	√çndex d'estructura de la poblaci√≥ en edat activa</t>
-  </si>
-  <si>
-    <t>21	Población	Estructura de la población	Índice de reemplazo de la población en edad activa	√çndex de reempla√ßament de la poblaci√≥ en edat activa</t>
-  </si>
-  <si>
-    <t>22	Población	Estructura de la población	Porcentaje de población de nacionalidad extranjera	Percentatge de poblaci√≥ de nacionalitat estrangera</t>
-  </si>
-  <si>
-    <t>23	Población	Estructura de la población	Distribución porcentual de la población de nacionalidad extranjera	Distribuci√≥ percentual de la poblaci√≥ de nacionalitat estrangera</t>
-  </si>
-  <si>
-    <t>24	Población	Estructura de la población	Relación de masculinidad de la población de nacionalidad extranjera	Relaci√≥ de masculinitat de la poblaci√≥ de nacionalitat estrangera</t>
-  </si>
-  <si>
-    <t>25	Población	Estructura de la población	Edad media de la población extranjera	Edat mitjana de la poblaci√≥ estrangera</t>
-  </si>
-  <si>
-    <t>26	Población	Estructura de la población	Distribución porcentual de población de nacionalidad extranjera de la Unión Europea	Distribuci√≥ percentual de poblaci√≥ de nacionalitat estrangera de la Uni√≥ Europea</t>
-  </si>
-  <si>
-    <t>27	Población	Estructura de la población	Distribución porcentual de población de nacionalidad extranjera Europea no UE	Distribuci√≥ percentual de poblaci√≥ de nacionalitat estrangera Europea no UE</t>
-  </si>
-  <si>
-    <t>28	Población	Estructura de la población	Distribución porcentual de población de nacionalidad extranjera de África	Distribuci√≥ percentual de poblaci√≥ de nacionalitat estrangera d'√Äfrica</t>
-  </si>
-  <si>
-    <t>29	Población	Estructura de la población	Distribución porcentual de población de nacionalidad extranjera de América del Norte	Distribuci√≥ percentual de poblaci√≥ de nacionalitat estrangera d'Am√®rica del Nord</t>
-  </si>
-  <si>
-    <t>30	Población	Estructura de la población	Distribución porcentual de población de nacionalidad extranjera de América Central	Distribuci√≥ percentual de poblaci√≥ de nacionalitat estrangera d'Am√®rica Central</t>
-  </si>
-  <si>
-    <t>31	Población	Estructura de la población	Distribución porcentual de población de nacionalidad extranjera de América del Sur	Distribuci√≥ percentual de poblaci√≥ de nacionalitat estrangera d'Am√®rica del Sud</t>
-  </si>
-  <si>
-    <t>32	Población	Estructura de la población	Distribución porcentual de población de nacionalidad extranjera de Asia Oceanía o apátrida	Distribuci√≥ percentual de poblaci√≥ de nacionalitat estrangera d'√Äsia, Oceania o ap√†trida</t>
-  </si>
-  <si>
-    <t>33	Población	Estructura de la población	Índice de autoctonía	√çndex d'autoctonia</t>
-  </si>
-  <si>
-    <t>34	Población	Estructura de la población	Índice de autoctonía provincial	√çndex d'autoctonia provincial</t>
-  </si>
-  <si>
-    <t>35	Población	Estructura de la población	Índice de autoctonía Comunidad Valenciana	√çndex d'autoctonia Comunitat Valenciana</t>
-  </si>
-  <si>
-    <t>36	Población	Estructura de la población	Índice de autoctonía estatal	√çndex d'autoctonia estatal</t>
-  </si>
-  <si>
-    <t>37	Población	Estructura de la población	Índice de aloctonía estatal	√çndex d'aloctonia estatal</t>
-  </si>
-  <si>
-    <t>38	Población	Estructura de la población	Índice de autoctonía UE	√çndex d'autoctonia UE</t>
-  </si>
-  <si>
-    <t>39	Población	Estructura de la población	Población de 18 años o más con nivel de estudios inferior a Bachillerato	Poblaci√≥ de 18 anys o m√©s amb nivell d'estudis inferior a Batxillerat</t>
-  </si>
-  <si>
-    <t>40	Población	Estructura de la población	Población de 18 o más años con nivel de estudios de Bachillerato o superior	Poblaci√≥ de 18 anys o m√©s amb nivell d'estudis de Batxillerat o superior</t>
-  </si>
-  <si>
-    <t>41	Población	Convivencia	Número medio de personas por unidad familiar	Nombre mitj√† de persones per full familiar</t>
-  </si>
-  <si>
-    <t>42	Población	Convivencia	Porcentaje de unidades familiares unipersonales	Percentatge de fulls familiars unipersonals</t>
-  </si>
-  <si>
-    <t>43	Población	Convivencia	Porcentaje de unidades familiares de 2 personas	Percentatge de fulls familiars de 2 persones</t>
-  </si>
-  <si>
-    <t>44	Población	Convivencia	Porcentaje de unidades familiares de 3 personas	Percentatge de fulls familiars de 3 persones</t>
-  </si>
-  <si>
-    <t>45	Población	Convivencia	Porcentaje de unidades familiares de 4 personas	Percentatge de fulls familiars de 4 persones</t>
-  </si>
-  <si>
-    <t>46	Población	Convivencia	Porcentaje de unidades familiares de 5 o más personas	Percentatge de fulls familiars de 5 o m√©s persones</t>
-  </si>
-  <si>
-    <t>47	Población	Convivencia	Porcentaje de unidades familiares de sólo personas mayores de 64 años	Percentatge de fulls familiars de nom√©s persones majors de 64 anys</t>
-  </si>
-  <si>
-    <t>48	Población	Convivencia	Porcentaje de unidades familiares de sólo personas mayores de 79 años	Percentatge de fulls familiars de nom√©s persones majors de 79 anys</t>
-  </si>
-  <si>
-    <t>49	Población	Convivencia	Mayores de 64 años en unidades familiares unipersonales	Majors de 64 anys en fulls familiars unipersonals</t>
-  </si>
-  <si>
-    <t>50	Población	Convivencia	Porcentaje de unidades familiares con menores de 18 años	Percentatge de fulls familiars amb menors de 18 anys</t>
-  </si>
-  <si>
-    <t>51	Población	Convivencia	Porcentaje de unidades familiares con un menor de 18 años	Percentatge de fulls familiars amb un menor de 18 anys</t>
-  </si>
-  <si>
-    <t>52	Población	Convivencia	Porcentaje de unidades familiares con dos menores de 18 años	Percentatge de fulls familiars amb dos menors de 18 anys</t>
-  </si>
-  <si>
-    <t>53	Población	Convivencia	Porcentaje de unidades familiares con tres o más menores de 18 años	Percentatge de fulls familiars amb tres o m√©s menors de 18 anys</t>
-  </si>
-  <si>
-    <t>54	Población	Movimiento natural de la población	Nacimientos registrados en el Padrón	Naixements registrats al Padr√≥</t>
-  </si>
-  <si>
-    <t>55	Población	Movimiento natural de la población	Tasa bruta de natalidad registrada en el Padrón	Taxa bruta de natalitat registrada al Padr√≥</t>
-  </si>
-  <si>
-    <t>56	Población	Movimiento natural de la población	Tasa global de fecundidad registrada en el Padró	Taxa global de fecunditat registrada al Padr√≥</t>
-  </si>
-  <si>
-    <t>57	Población	Movimiento natural de la población	Número de defunciones registradas en el Padrón	Nombre de defuncions registrades al Padr√≥</t>
-  </si>
-  <si>
-    <t>58	Población	Movimiento natural de la población	Tasa bruta de mortalidad registrada en el Padrón	Taxa bruta de mortalitat registrada al Padr√≥</t>
-  </si>
-  <si>
-    <t>59	Población	Movimiento natural de la población	Tasa de mortalidad de los hombres registrada en el Padrón	Taxa de mortalitat dels homes registrada al Padr√≥</t>
-  </si>
-  <si>
-    <t>60	Población	Movimiento natural de la población	Tasa de mortalidad de las mujeres registrada en el Padrón	Taxa de mortalitat de les dones registrada al Padr√≥</t>
-  </si>
-  <si>
-    <t>61	Población	Movimiento natural de la población	Crecimiento vegetativo registrado en el Padrón	Creixement vegetatiu registrat al Padr√≥</t>
-  </si>
-  <si>
-    <t>62	Población	Movimientos migratorios	Población inmigrante	Poblaci√≥ immigrant</t>
-  </si>
-  <si>
-    <t>63	Población	Movimientos migratorios	Tasa bruta de inmigración intraurbana	Taxa bruta d'immigraci√≥</t>
-  </si>
-  <si>
-    <t>64	Población	Movimientos migratorios	Proporción de inmigrantes de nacionalidad extranjera	Proporci√≥ d'immigrants de nacionalitat estrangera</t>
-  </si>
-  <si>
-    <t>65	Población	Movimientos migratorios	Población emigrante	Poblaci√≥ emigrant</t>
-  </si>
-  <si>
-    <t>66	Población	Movimientos migratorios	Tasa bruta de emigración	Taxa bruta d'emigraci√≥</t>
-  </si>
-  <si>
-    <t>67	Población	Movimientos migratorios	Saldo migratorio	Saldo migratori</t>
-  </si>
-  <si>
-    <t>68	Población	Movimientos Intraurbanos	Tasa bruta de inmigración intraurbana	Taxa bruta de inmigraci√≥ intraurbana</t>
-  </si>
-  <si>
-    <t>69	Población	Movimientos Intraurbanos	Tasa bruta de emigración intraurbana	Taxa bruta d'emigraci√≥ intraurbana</t>
-  </si>
-  <si>
-    <t>70	Población	Movimientos Intraurbanos	Saldo neto	Saldo net</t>
-  </si>
-  <si>
-    <t>71	Transporte	Vehículos	Número de vehículos	Nombre de vehicles</t>
-  </si>
-  <si>
-    <t>72	Transporte	Vehículos	Distribución porcentual del número de vehículos	Distribuci√≥ percentual del nombre de vehicles</t>
-  </si>
-  <si>
-    <t>73	Transporte	Vehículos	Número de turismos	Nombre de turismes</t>
-  </si>
-  <si>
-    <t>74	Transporte	Vehículos	Distribución porcentual del número de turismos	Distribuci√≥ percentual del nombre de turismes</t>
-  </si>
-  <si>
-    <t>75	Transporte	Vehículos	Turismos particulares por cada 1.000 habitantes	Turismes particulars per cada 1.000 habitants</t>
-  </si>
-  <si>
-    <t>76	Transporte	Vehículos	Porcentaje de turismos particulares de 10 y más años	Percentatge de turismes particulars de 10 i m√©s anys</t>
-  </si>
-  <si>
-    <t>77	Transporte	Vehículos	Edad media de los turismos particulares	Edat mitjana dels turismes particulars</t>
-  </si>
-  <si>
-    <t>78	Transporte	Vehículos	Porcentaje de turismos particulares de 16 y más CV	Percentatge de turismes particulars de 16 i m√©s CV</t>
-  </si>
-  <si>
-    <t>79	Transporte	Vehículos	Motocicletas por cada 1.000 habitantes	Motocicletes per cada 1.000 habitants</t>
-  </si>
-  <si>
-    <t>80	Edificación y Vivienda	Vivienda	Número de viviendas	Nombre d'habitatges</t>
-  </si>
-  <si>
-    <t>81	Edificación y Vivienda	Vivienda	Superficie construida media de las viviendas	Superf√≠cie constru√Øda mitjana dels habitatges</t>
-  </si>
-  <si>
-    <t>82	Edificación y Vivienda	Vivienda	Porcentaje de viviendas de menos de 60 metros cuadrados	Percentatge d'habitatges de menys de 60 metres quadrats</t>
-  </si>
-  <si>
-    <t>83	Edificación y Vivienda	Vivienda	Porcentaje de viviendas de menos de 80 metros cuadrados	Percentatge d'habitatges de menys de 80 metres quadrats</t>
-  </si>
-  <si>
-    <t>84	Edificación y Vivienda	Vivienda	Porcentaje de viviendas de más de 120 metros cuadrados	Percentatge d'habitatges de m√©s de 120 metres quadrats</t>
-  </si>
-  <si>
-    <t>85	Edificación y Vivienda	Vivienda	Porcentaje de viviendas con menos de 10 años	Percentatge d'habitatges amb menys de 10 anys</t>
-  </si>
-  <si>
-    <t>86	Edificación y Vivienda	Vivienda	Porcentaje de viviendas con menos de 5 años	Percentatge d'habitatges amb menys de 5 anys</t>
-  </si>
-  <si>
-    <t>87	Edificación y Vivienda	Vivienda	Porcentaje de viviendas con más de 50 años	Percentatge d'habitatges amb m√©s de 50 anys</t>
-  </si>
-  <si>
-    <t>88	Edificación y Vivienda	Vivienda	Valor catastral medio por vivienda	Valor cadastral mitj√† per habitatge</t>
-  </si>
-  <si>
-    <t>89	Edificación y Vivienda	Vivienda	Valor catastral medio por metro cuadrado	Valor cadastral mitj√† per metre quadrat</t>
-  </si>
-  <si>
-    <t>90	Edificación y Vivienda	Vivienda	% Viviendas con valor catastral menor de 18.000 euros	% Habitatges amb valor cadastral menor de 18.000 euros</t>
-  </si>
-  <si>
-    <t>91	Edificación y Vivienda	Vivienda	% Viviendas con valor catastral mayor de 48.000 euros	% Habitatges amb valor cadastral major de 48.000 euros</t>
-  </si>
-  <si>
-    <t>92	Edificación y Vivienda	Vivienda	Superficie total de solares	Superf√≠cie total de solars</t>
-  </si>
-  <si>
-    <t>93	Edificación y Vivienda	Vivienda	Superficie total de aparcamientos	Superf√≠cie total d'aparcaments</t>
-  </si>
-  <si>
-    <t>94	Edificación y Vivienda	Vivienda	Superficie de aparcamiento por vivienda	Superf√≠cie d'aparcament per habitatge</t>
-  </si>
-  <si>
-    <t>95	Edificación y Vivienda	Vivienda	Superficie de aparcamiento por turismo	Superf√≠cie d'aparcament per turisme</t>
-  </si>
-  <si>
-    <t>96	Actividad Económica, Renta y Consumo	Actividad Económica	Actividades en el Impuesto de Actividades Económicas	Activitats a l'Impost d'Activitats Econ√≤miques</t>
-  </si>
-  <si>
-    <t>97	Actividad Económica, Renta y Consumo	Actividad Económica	Grado de terciarización económica	Grau de terciaritzaci√≥ econ√≤mica</t>
-  </si>
-  <si>
-    <t>98	Actividad Económica, Renta y Consumo	Actividad Económica	Actividades económicas por 1.000 habitantes	Activitats econ√≤miques per 1.000 habitants</t>
-  </si>
-  <si>
-    <t>101	Participación Ciudadana	Consultas Electorales	% Participación en las Elecciones Locales	% Participaci√≥ a les Eleccions Locals</t>
-  </si>
-  <si>
-    <t>102	Participación Ciudadana	Consultas Electorales	% Votos a Compromís en las Elecciones Locales	% Vots a Comprom√≠s a les Eleccions Locals</t>
-  </si>
-  <si>
-    <t>103	Participación Ciudadana	Consultas Electorales	% Votos en el PP en las Elecciones Locales	% Vots al PP a les Eleccions Locals</t>
-  </si>
-  <si>
-    <t>104	Participación Ciudadana	Consultas Electorales	% Votos en el PSOE en las Elecciones Locales	% Vots al PSOE a les Eleccions Locals</t>
-  </si>
-  <si>
-    <t>105	Participación Ciudadana	Consultas Electorales	% Votos en Ciudadanos en las Elecciones Locales	% Vots a Ciudadanos a les Eleccions Locals</t>
-  </si>
-  <si>
-    <t>106	Participación Ciudadana	Consultas Electorales	% Votos a VOX en las Elecciones Locales	% Vots a VOX a les Eleccions Locals</t>
-  </si>
-  <si>
-    <t>107	Participación Ciudadana	Consultas Electorales	% Participación en las Elecciones Autonómicas	% Participaci√≥ a les Eleccions Auton√≤miques</t>
-  </si>
-  <si>
-    <t>108	Participación Ciudadana	Consultas Electorales	% Votos a Compromís a las Elecciones Autonómicas	% Vots a Comprom√≠s a les Eleccions Auton√≤miques</t>
-  </si>
-  <si>
-    <t>109	Participación Ciudadana	Consultas Electorales	% Votos en el PSOE en las Elecciones Autonómicas	% Vots al PSOE a les Eleccions Auton√≤miques</t>
-  </si>
-  <si>
-    <t>110	Participación Ciudadana	Consultas Electorales	% Votos en Ciudadanos en las Elecciones Autonómicas	% Vots a Ciudadanos a les Eleccions Auton√≤miques</t>
-  </si>
-  <si>
-    <t>111	Participación Ciudadana	Consultas Electorales	% Votos en el PP en las Elecciones Autonómicas	% Vots al PP a les Eleccions Auton√≤miques</t>
-  </si>
-  <si>
-    <t>112	Participación Ciudadana	Consultas Electorales	% Votos a VOX en las Elecciones Autonómicas	% Vots a VOX a les Eleccions Auton√≤miques</t>
-  </si>
-  <si>
-    <t>113	Participación Ciudadana	Consultas Electorales	% Participación en las Elecciones Generales	% Participaci√≥ a les Eleccions Generals</t>
-  </si>
-  <si>
-    <t>114	Participación Ciudadana	Consultas Electorales	% Votos en el PSOE en las Elecciones Generales	% Vots al PSOE a les Eleccions Generals</t>
-  </si>
-  <si>
-    <t>115	Participación Ciudadana	Consultas Electorales	% Votos en el PP en las Elecciones Generales	% Vots al PP a les Eleccions Generals</t>
-  </si>
-  <si>
-    <t>116	Participación Ciudadana	Consultas Electorales	% Votos a VOX en las Elecciones Generales	% Vots a VOX a les Eleccions Generals</t>
-  </si>
-  <si>
-    <t>117	Participación Ciudadana	Consultas Electorales	% Votos en PODEMOS-EUPV en las Elecciones Generales	% Vots a PODEMOS-EUPV a les Eleccions Generals</t>
-  </si>
-  <si>
-    <t>118	Participación Ciudadana	Consultas Electorales	% Votos a Compromís en las Elecciones Generales	% Vots a Comprom√≠s a les Eleccions Generals</t>
-  </si>
-  <si>
-    <t>119	Participación Ciudadana	Consultas Electorales	% Participación en las Elecciones Europeas	% Participaci√≥ a les Eleccions Europees</t>
-  </si>
-  <si>
-    <t>120	Participación Ciudadana	Consultas Electorales	% Votos en el PSOE en las Elecciones Europeas	% Vots al PSOE a les Eleccions Europees</t>
-  </si>
-  <si>
-    <t>121	Participación Ciudadana	Consultas Electorales	% Votos en el PP en las Elecciones Europeas	% Vots al PP a les Eleccions Europees</t>
-  </si>
-  <si>
-    <t>122	Participación Ciudadana	Consultas Electorales	% Votos en Cs en las Elecciones Europeas	% Vots a Cs a les Eleccions Europees</t>
-  </si>
-  <si>
-    <t>123	Participación Ciudadana	Consultas Electorales	% Votos en PODEMOS-IU en las Elecciones Europeas	% Vots a PODEMOS-IU a les Eleccions Europees</t>
-  </si>
-  <si>
-    <t>124	Participación Ciudadana	Consultas Electorales	% Votos a Compromís por Europa en las Elecciones Europeas	% Vots a Comprom√≠s per Europa a les Eleccions Europees</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="299">
+  <si>
+    <t>Indicador</t>
+  </si>
+  <si>
+    <t>Tema</t>
+  </si>
+  <si>
+    <t>SubTema</t>
+  </si>
+  <si>
+    <t>Ind_Esp</t>
+  </si>
+  <si>
+    <t>Ind_Val</t>
+  </si>
+  <si>
+    <t>Población</t>
+  </si>
+  <si>
+    <t>Estructura de la población</t>
+  </si>
+  <si>
+    <t>Población residente</t>
+  </si>
+  <si>
+    <t>Poblaci√≥ resident</t>
+  </si>
+  <si>
+    <t>Densidad de población</t>
+  </si>
+  <si>
+    <t>Densitat de poblaci√≥</t>
+  </si>
+  <si>
+    <t>Variación anual de la población</t>
+  </si>
+  <si>
+    <t>Variaci√≥ anual de la poblaci√≥</t>
+  </si>
+  <si>
+    <t>Relación de masculinidad de la población</t>
+  </si>
+  <si>
+    <t>Relaci√≥ de masculinitat de la poblaci√≥</t>
+  </si>
+  <si>
+    <t>Proporción de población menor de 16 años</t>
+  </si>
+  <si>
+    <t>Proporci√≥ de poblaci√≥ menor de 16 anys</t>
+  </si>
+  <si>
+    <t>Proporción de población de 16 a 64 años</t>
+  </si>
+  <si>
+    <t>Proporci√≥ de poblaci√≥ de 16 a 64 anys</t>
+  </si>
+  <si>
+    <t>Proporción de población mayor de 64 años</t>
+  </si>
+  <si>
+    <t>Proporci√≥ de poblaci√≥ major de 64 anys</t>
+  </si>
+  <si>
+    <t>Población de 0 a 2 años</t>
+  </si>
+  <si>
+    <t>Poblaci√≥ de 0 a 2 anys</t>
+  </si>
+  <si>
+    <t>Población de 3 a 5 años</t>
+  </si>
+  <si>
+    <t>Poblaci√≥ de 3 a 5 anys</t>
+  </si>
+  <si>
+    <t>Población de 6 a 11 años</t>
+  </si>
+  <si>
+    <t>Poblaci√≥ de 6 a 11 anys</t>
+  </si>
+  <si>
+    <t>Población de 12 a 15 años</t>
+  </si>
+  <si>
+    <t>Poblaci√≥ de 12 a 15 anys</t>
+  </si>
+  <si>
+    <t>Proporción de población menor de 18 años</t>
+  </si>
+  <si>
+    <t>Proporci√≥ de poblaci√≥ menor de 18 anys</t>
+  </si>
+  <si>
+    <t>Edad media</t>
+  </si>
+  <si>
+    <t>Edat mitjana</t>
+  </si>
+  <si>
+    <t>Edad media de los hombres</t>
+  </si>
+  <si>
+    <t>Edat mitjana dels homes</t>
+  </si>
+  <si>
+    <t>Edad media de las mujeres</t>
+  </si>
+  <si>
+    <t>Edat mitjana de les dones</t>
+  </si>
+  <si>
+    <t>Índice de envejecimiento</t>
+  </si>
+  <si>
+    <t>√çndex d'envelliment</t>
+  </si>
+  <si>
+    <t>Índice de sobre envejecimiento</t>
+  </si>
+  <si>
+    <t>√çndex de sobrenvelliment</t>
+  </si>
+  <si>
+    <t>Índice demográfico de dependencia global</t>
+  </si>
+  <si>
+    <t>√çndex demogr√†fic de depend√®ncia global</t>
+  </si>
+  <si>
+    <t>Raó de progresividad demográfica</t>
+  </si>
+  <si>
+    <t>Ra√≥ de progressivitat demogr√†fica</t>
+  </si>
+  <si>
+    <t>Índice de estructura de la población en edad activa</t>
+  </si>
+  <si>
+    <t>√çndex d'estructura de la poblaci√≥ en edat activa</t>
+  </si>
+  <si>
+    <t>Índice de reemplazo de la población en edad activa</t>
+  </si>
+  <si>
+    <t>√çndex de reempla√ßament de la poblaci√≥ en edat activa</t>
+  </si>
+  <si>
+    <t>Porcentaje de población de nacionalidad extranjera</t>
+  </si>
+  <si>
+    <t>Percentatge de poblaci√≥ de nacionalitat estrangera</t>
+  </si>
+  <si>
+    <t>Distribución porcentual de la población de nacionalidad extranjera</t>
+  </si>
+  <si>
+    <t>Distribuci√≥ percentual de la poblaci√≥ de nacionalitat estrangera</t>
+  </si>
+  <si>
+    <t>Relación de masculinidad de la población de nacionalidad extranjera</t>
+  </si>
+  <si>
+    <t>Relaci√≥ de masculinitat de la poblaci√≥ de nacionalitat estrangera</t>
+  </si>
+  <si>
+    <t>Edad media de la población extranjera</t>
+  </si>
+  <si>
+    <t>Edat mitjana de la poblaci√≥ estrangera</t>
+  </si>
+  <si>
+    <t>Distribución porcentual de población de nacionalidad extranjera de la Unión Europea</t>
+  </si>
+  <si>
+    <t>Distribuci√≥ percentual de poblaci√≥ de nacionalitat estrangera de la Uni√≥ Europea</t>
+  </si>
+  <si>
+    <t>Distribución porcentual de población de nacionalidad extranjera Europea no UE</t>
+  </si>
+  <si>
+    <t>Distribuci√≥ percentual de poblaci√≥ de nacionalitat estrangera Europea no UE</t>
+  </si>
+  <si>
+    <t>Distribución porcentual de población de nacionalidad extranjera de África</t>
+  </si>
+  <si>
+    <t>Distribuci√≥ percentual de poblaci√≥ de nacionalitat estrangera d'√Äfrica</t>
+  </si>
+  <si>
+    <t>Distribución porcentual de población de nacionalidad extranjera de América del Norte</t>
+  </si>
+  <si>
+    <t>Distribuci√≥ percentual de poblaci√≥ de nacionalitat estrangera d'Am√®rica del Nord</t>
+  </si>
+  <si>
+    <t>Distribución porcentual de población de nacionalidad extranjera de América Central</t>
+  </si>
+  <si>
+    <t>Distribuci√≥ percentual de poblaci√≥ de nacionalitat estrangera d'Am√®rica Central</t>
+  </si>
+  <si>
+    <t>Distribución porcentual de población de nacionalidad extranjera de América del Sur</t>
+  </si>
+  <si>
+    <t>Distribuci√≥ percentual de poblaci√≥ de nacionalitat estrangera d'Am√®rica del Sud</t>
+  </si>
+  <si>
+    <t>Distribución porcentual de población de nacionalidad extranjera de Asia Oceanía o apátrida</t>
+  </si>
+  <si>
+    <t>Distribuci√≥ percentual de poblaci√≥ de nacionalitat estrangera d'√Äsia, Oceania o ap√†trida</t>
+  </si>
+  <si>
+    <t>Índice de autoctonía</t>
+  </si>
+  <si>
+    <t>√çndex d'autoctonia</t>
+  </si>
+  <si>
+    <t>Índice de autoctonía provincial</t>
+  </si>
+  <si>
+    <t>√çndex d'autoctonia provincial</t>
+  </si>
+  <si>
+    <t>Índice de autoctonía Comunidad Valenciana</t>
+  </si>
+  <si>
+    <t>√çndex d'autoctonia Comunitat Valenciana</t>
+  </si>
+  <si>
+    <t>Índice de autoctonía estatal</t>
+  </si>
+  <si>
+    <t>√çndex d'autoctonia estatal</t>
+  </si>
+  <si>
+    <t>Índice de aloctonía estatal</t>
+  </si>
+  <si>
+    <t>√çndex d'aloctonia estatal</t>
+  </si>
+  <si>
+    <t>Índice de autoctonía UE</t>
+  </si>
+  <si>
+    <t>√çndex d'autoctonia UE</t>
+  </si>
+  <si>
+    <t>Población de 18 años o más con nivel de estudios inferior a Bachillerato</t>
+  </si>
+  <si>
+    <t>Poblaci√≥ de 18 anys o m√©s amb nivell d'estudis inferior a Batxillerat</t>
+  </si>
+  <si>
+    <t>Población de 18 o más años con nivel de estudios de Bachillerato o superior</t>
+  </si>
+  <si>
+    <t>Poblaci√≥ de 18 anys o m√©s amb nivell d'estudis de Batxillerat o superior</t>
+  </si>
+  <si>
+    <t>Convivencia</t>
+  </si>
+  <si>
+    <t>Número medio de personas por unidad familiar</t>
+  </si>
+  <si>
+    <t>Nombre mitj√† de persones per full familiar</t>
+  </si>
+  <si>
+    <t>Porcentaje de unidades familiares unipersonales</t>
+  </si>
+  <si>
+    <t>Percentatge de fulls familiars unipersonals</t>
+  </si>
+  <si>
+    <t>Porcentaje de unidades familiares de 2 personas</t>
+  </si>
+  <si>
+    <t>Percentatge de fulls familiars de 2 persones</t>
+  </si>
+  <si>
+    <t>Porcentaje de unidades familiares de 3 personas</t>
+  </si>
+  <si>
+    <t>Percentatge de fulls familiars de 3 persones</t>
+  </si>
+  <si>
+    <t>Porcentaje de unidades familiares de 4 personas</t>
+  </si>
+  <si>
+    <t>Percentatge de fulls familiars de 4 persones</t>
+  </si>
+  <si>
+    <t>Porcentaje de unidades familiares de 5 o más personas</t>
+  </si>
+  <si>
+    <t>Percentatge de fulls familiars de 5 o m√©s persones</t>
+  </si>
+  <si>
+    <t>Porcentaje de unidades familiares de sólo personas mayores de 64 años</t>
+  </si>
+  <si>
+    <t>Percentatge de fulls familiars de nom√©s persones majors de 64 anys</t>
+  </si>
+  <si>
+    <t>Porcentaje de unidades familiares de sólo personas mayores de 79 años</t>
+  </si>
+  <si>
+    <t>Percentatge de fulls familiars de nom√©s persones majors de 79 anys</t>
+  </si>
+  <si>
+    <t>Mayores de 64 años en unidades familiares unipersonales</t>
+  </si>
+  <si>
+    <t>Majors de 64 anys en fulls familiars unipersonals</t>
+  </si>
+  <si>
+    <t>Porcentaje de unidades familiares con menores de 18 años</t>
+  </si>
+  <si>
+    <t>Percentatge de fulls familiars amb menors de 18 anys</t>
+  </si>
+  <si>
+    <t>Porcentaje de unidades familiares con un menor de 18 años</t>
+  </si>
+  <si>
+    <t>Percentatge de fulls familiars amb un menor de 18 anys</t>
+  </si>
+  <si>
+    <t>Porcentaje de unidades familiares con dos menores de 18 años</t>
+  </si>
+  <si>
+    <t>Percentatge de fulls familiars amb dos menors de 18 anys</t>
+  </si>
+  <si>
+    <t>Porcentaje de unidades familiares con tres o más menores de 18 años</t>
+  </si>
+  <si>
+    <t>Percentatge de fulls familiars amb tres o m√©s menors de 18 anys</t>
+  </si>
+  <si>
+    <t>Movimiento natural de la población</t>
+  </si>
+  <si>
+    <t>Nacimientos registrados en el Padrón</t>
+  </si>
+  <si>
+    <t>Naixements registrats al Padr√≥</t>
+  </si>
+  <si>
+    <t>Tasa bruta de natalidad registrada en el Padrón</t>
+  </si>
+  <si>
+    <t>Taxa bruta de natalitat registrada al Padr√≥</t>
+  </si>
+  <si>
+    <t>Tasa global de fecundidad registrada en el Padró</t>
+  </si>
+  <si>
+    <t>Taxa global de fecunditat registrada al Padr√≥</t>
+  </si>
+  <si>
+    <t>Número de defunciones registradas en el Padrón</t>
+  </si>
+  <si>
+    <t>Nombre de defuncions registrades al Padr√≥</t>
+  </si>
+  <si>
+    <t>Tasa bruta de mortalidad registrada en el Padrón</t>
+  </si>
+  <si>
+    <t>Taxa bruta de mortalitat registrada al Padr√≥</t>
+  </si>
+  <si>
+    <t>Tasa de mortalidad de los hombres registrada en el Padrón</t>
+  </si>
+  <si>
+    <t>Taxa de mortalitat dels homes registrada al Padr√≥</t>
+  </si>
+  <si>
+    <t>Tasa de mortalidad de las mujeres registrada en el Padrón</t>
+  </si>
+  <si>
+    <t>Taxa de mortalitat de les dones registrada al Padr√≥</t>
+  </si>
+  <si>
+    <t>Crecimiento vegetativo registrado en el Padrón</t>
+  </si>
+  <si>
+    <t>Creixement vegetatiu registrat al Padr√≥</t>
+  </si>
+  <si>
+    <t>Movimientos migratorios</t>
+  </si>
+  <si>
+    <t>Población inmigrante</t>
+  </si>
+  <si>
+    <t>Poblaci√≥ immigrant</t>
+  </si>
+  <si>
+    <t>Tasa bruta de inmigración intraurbana</t>
+  </si>
+  <si>
+    <t>Taxa bruta d'immigraci√≥</t>
+  </si>
+  <si>
+    <t>Proporción de inmigrantes de nacionalidad extranjera</t>
+  </si>
+  <si>
+    <t>Proporci√≥ d'immigrants de nacionalitat estrangera</t>
+  </si>
+  <si>
+    <t>Población emigrante</t>
+  </si>
+  <si>
+    <t>Poblaci√≥ emigrant</t>
+  </si>
+  <si>
+    <t>Tasa bruta de emigración</t>
+  </si>
+  <si>
+    <t>Taxa bruta d'emigraci√≥</t>
+  </si>
+  <si>
+    <t>Saldo migratorio</t>
+  </si>
+  <si>
+    <t>Saldo migratori</t>
+  </si>
+  <si>
+    <t>Movimientos Intraurbanos</t>
+  </si>
+  <si>
+    <t>Taxa bruta de inmigraci√≥ intraurbana</t>
+  </si>
+  <si>
+    <t>Tasa bruta de emigración intraurbana</t>
+  </si>
+  <si>
+    <t>Taxa bruta d'emigraci√≥ intraurbana</t>
+  </si>
+  <si>
+    <t>Saldo neto</t>
+  </si>
+  <si>
+    <t>Saldo net</t>
+  </si>
+  <si>
+    <t>Transporte</t>
+  </si>
+  <si>
+    <t>Vehículos</t>
+  </si>
+  <si>
+    <t>Número de vehículos</t>
+  </si>
+  <si>
+    <t>Nombre de vehicles</t>
+  </si>
+  <si>
+    <t>Distribución porcentual del número de vehículos</t>
+  </si>
+  <si>
+    <t>Distribuci√≥ percentual del nombre de vehicles</t>
+  </si>
+  <si>
+    <t>Número de turismos</t>
+  </si>
+  <si>
+    <t>Nombre de turismes</t>
+  </si>
+  <si>
+    <t>Distribución porcentual del número de turismos</t>
+  </si>
+  <si>
+    <t>Distribuci√≥ percentual del nombre de turismes</t>
+  </si>
+  <si>
+    <t>Turismos particulares por cada 1.000 habitantes</t>
+  </si>
+  <si>
+    <t>Turismes particulars per cada 1.000 habitants</t>
+  </si>
+  <si>
+    <t>Porcentaje de turismos particulares de 10 y más años</t>
+  </si>
+  <si>
+    <t>Percentatge de turismes particulars de 10 i m√©s anys</t>
+  </si>
+  <si>
+    <t>Edad media de los turismos particulares</t>
+  </si>
+  <si>
+    <t>Edat mitjana dels turismes particulars</t>
+  </si>
+  <si>
+    <t>Porcentaje de turismos particulares de 16 y más CV</t>
+  </si>
+  <si>
+    <t>Percentatge de turismes particulars de 16 i m√©s CV</t>
+  </si>
+  <si>
+    <t>Motocicletas por cada 1.000 habitantes</t>
+  </si>
+  <si>
+    <t>Motocicletes per cada 1.000 habitants</t>
+  </si>
+  <si>
+    <t>Edificación y Vivienda</t>
+  </si>
+  <si>
+    <t>Vivienda</t>
+  </si>
+  <si>
+    <t>Número de viviendas</t>
+  </si>
+  <si>
+    <t>Nombre d'habitatges</t>
+  </si>
+  <si>
+    <t>Superficie construida media de las viviendas</t>
+  </si>
+  <si>
+    <t>Superf√≠cie constru√Øda mitjana dels habitatges</t>
+  </si>
+  <si>
+    <t>Porcentaje de viviendas de menos de 60 metros cuadrados</t>
+  </si>
+  <si>
+    <t>Percentatge d'habitatges de menys de 60 metres quadrats</t>
+  </si>
+  <si>
+    <t>Porcentaje de viviendas de menos de 80 metros cuadrados</t>
+  </si>
+  <si>
+    <t>Percentatge d'habitatges de menys de 80 metres quadrats</t>
+  </si>
+  <si>
+    <t>Porcentaje de viviendas de más de 120 metros cuadrados</t>
+  </si>
+  <si>
+    <t>Percentatge d'habitatges de m√©s de 120 metres quadrats</t>
+  </si>
+  <si>
+    <t>Porcentaje de viviendas con menos de 10 años</t>
+  </si>
+  <si>
+    <t>Percentatge d'habitatges amb menys de 10 anys</t>
+  </si>
+  <si>
+    <t>Porcentaje de viviendas con menos de 5 años</t>
+  </si>
+  <si>
+    <t>Percentatge d'habitatges amb menys de 5 anys</t>
+  </si>
+  <si>
+    <t>Porcentaje de viviendas con más de 50 años</t>
+  </si>
+  <si>
+    <t>Percentatge d'habitatges amb m√©s de 50 anys</t>
+  </si>
+  <si>
+    <t>Valor catastral medio por vivienda</t>
+  </si>
+  <si>
+    <t>Valor cadastral mitj√† per habitatge</t>
+  </si>
+  <si>
+    <t>Valor catastral medio por metro cuadrado</t>
+  </si>
+  <si>
+    <t>Valor cadastral mitj√† per metre quadrat</t>
+  </si>
+  <si>
+    <t>% Viviendas con valor catastral menor de 18.000 euros</t>
+  </si>
+  <si>
+    <t>% Habitatges amb valor cadastral menor de 18.000 euros</t>
+  </si>
+  <si>
+    <t>% Viviendas con valor catastral mayor de 48.000 euros</t>
+  </si>
+  <si>
+    <t>% Habitatges amb valor cadastral major de 48.000 euros</t>
+  </si>
+  <si>
+    <t>Superficie total de solares</t>
+  </si>
+  <si>
+    <t>Superf√≠cie total de solars</t>
+  </si>
+  <si>
+    <t>Superficie total de aparcamientos</t>
+  </si>
+  <si>
+    <t>Superf√≠cie total d'aparcaments</t>
+  </si>
+  <si>
+    <t>Superficie de aparcamiento por vivienda</t>
+  </si>
+  <si>
+    <t>Superf√≠cie d'aparcament per habitatge</t>
+  </si>
+  <si>
+    <t>Superficie de aparcamiento por turismo</t>
+  </si>
+  <si>
+    <t>Superf√≠cie d'aparcament per turisme</t>
+  </si>
+  <si>
+    <t>Actividad Económica Renta y Consumo</t>
+  </si>
+  <si>
+    <t>Actividad Económica</t>
+  </si>
+  <si>
+    <t>Actividades en el Impuesto de Actividades Económicas</t>
+  </si>
+  <si>
+    <t>Activitats a l'Impost d'Activitats Econ√≤miques</t>
+  </si>
+  <si>
+    <t>Grado de terciarización económica</t>
+  </si>
+  <si>
+    <t>Grau de terciaritzaci√≥ econ√≤mica</t>
+  </si>
+  <si>
+    <t>Actividades económicas por 1.000 habitantes</t>
+  </si>
+  <si>
+    <t>Activitats econ√≤miques per 1.000 habitants</t>
+  </si>
+  <si>
+    <t>Participación Ciudadana</t>
+  </si>
+  <si>
+    <t>Consultas Electorales</t>
+  </si>
+  <si>
+    <t>% Participación en las Elecciones Locales</t>
+  </si>
+  <si>
+    <t>% Participaci√≥ a les Eleccions Locals</t>
+  </si>
+  <si>
+    <t>% Votos a Compromís en las Elecciones Locales</t>
+  </si>
+  <si>
+    <t>% Vots a Comprom√≠s a les Eleccions Locals</t>
+  </si>
+  <si>
+    <t>% Votos en el PP en las Elecciones Locales</t>
+  </si>
+  <si>
+    <t>% Vots al PP a les Eleccions Locals</t>
+  </si>
+  <si>
+    <t>% Votos en el PSOE en las Elecciones Locales</t>
+  </si>
+  <si>
+    <t>% Vots al PSOE a les Eleccions Locals</t>
+  </si>
+  <si>
+    <t>% Votos en Ciudadanos en las Elecciones Locales</t>
+  </si>
+  <si>
+    <t>% Vots a Ciudadanos a les Eleccions Locals</t>
+  </si>
+  <si>
+    <t>% Votos a VOX en las Elecciones Locales</t>
+  </si>
+  <si>
+    <t>% Vots a VOX a les Eleccions Locals</t>
+  </si>
+  <si>
+    <t>% Participación en las Elecciones Autonómicas</t>
+  </si>
+  <si>
+    <t>% Participaci√≥ a les Eleccions Auton√≤miques</t>
+  </si>
+  <si>
+    <t>% Votos a Compromís a las Elecciones Autonómicas</t>
+  </si>
+  <si>
+    <t>% Vots a Comprom√≠s a les Eleccions Auton√≤miques</t>
+  </si>
+  <si>
+    <t>% Votos en el PSOE en las Elecciones Autonómicas</t>
+  </si>
+  <si>
+    <t>% Vots al PSOE a les Eleccions Auton√≤miques</t>
+  </si>
+  <si>
+    <t>% Votos en Ciudadanos en las Elecciones Autonómicas</t>
+  </si>
+  <si>
+    <t>% Vots a Ciudadanos a les Eleccions Auton√≤miques</t>
+  </si>
+  <si>
+    <t>% Votos en el PP en las Elecciones Autonómicas</t>
+  </si>
+  <si>
+    <t>% Vots al PP a les Eleccions Auton√≤miques</t>
+  </si>
+  <si>
+    <t>% Votos a VOX en las Elecciones Autonómicas</t>
+  </si>
+  <si>
+    <t>% Vots a VOX a les Eleccions Auton√≤miques</t>
+  </si>
+  <si>
+    <t>% Participación en las Elecciones Generales</t>
+  </si>
+  <si>
+    <t>% Participaci√≥ a les Eleccions Generals</t>
+  </si>
+  <si>
+    <t>% Votos en el PSOE en las Elecciones Generales</t>
+  </si>
+  <si>
+    <t>% Vots al PSOE a les Eleccions Generals</t>
+  </si>
+  <si>
+    <t>% Votos en el PP en las Elecciones Generales</t>
+  </si>
+  <si>
+    <t>% Vots al PP a les Eleccions Generals</t>
+  </si>
+  <si>
+    <t>% Votos a VOX en las Elecciones Generales</t>
+  </si>
+  <si>
+    <t>% Vots a VOX a les Eleccions Generals</t>
+  </si>
+  <si>
+    <t>% Votos en PODEMOS-EUPV en las Elecciones Generales</t>
+  </si>
+  <si>
+    <t>% Vots a PODEMOS-EUPV a les Eleccions Generals</t>
+  </si>
+  <si>
+    <t>% Votos a Compromís en las Elecciones Generales</t>
+  </si>
+  <si>
+    <t>% Vots a Comprom√≠s a les Eleccions Generals</t>
+  </si>
+  <si>
+    <t>% Participación en las Elecciones Europeas</t>
+  </si>
+  <si>
+    <t>% Participaci√≥ a les Eleccions Europees</t>
+  </si>
+  <si>
+    <t>% Votos en el PSOE en las Elecciones Europeas</t>
+  </si>
+  <si>
+    <t>% Vots al PSOE a les Eleccions Europees</t>
+  </si>
+  <si>
+    <t>% Votos en el PP en las Elecciones Europeas</t>
+  </si>
+  <si>
+    <t>% Vots al PP a les Eleccions Europees</t>
+  </si>
+  <si>
+    <t>% Votos en Cs en las Elecciones Europeas</t>
+  </si>
+  <si>
+    <t>% Vots a Cs a les Eleccions Europees</t>
+  </si>
+  <si>
+    <t>% Votos en PODEMOS-IU en las Elecciones Europeas</t>
+  </si>
+  <si>
+    <t>% Vots a PODEMOS-IU a les Eleccions Europees</t>
+  </si>
+  <si>
+    <t>% Votos a Compromís por Europa en las Elecciones Europeas</t>
+  </si>
+  <si>
+    <t>% Vots a Comprom√≠s per Europa a les Eleccions Europees</t>
+  </si>
+  <si>
+    <t>Servicios</t>
+  </si>
+  <si>
+    <t>Total Servicios</t>
+  </si>
+  <si>
+    <t>Comercio Restaurantes Hostelería y Reparaciones</t>
+  </si>
+  <si>
+    <t>Transportes y comunicaciones</t>
+  </si>
+  <si>
+    <t>Instituciones financieras y seguros</t>
+  </si>
+  <si>
+    <t>Otros servicios</t>
+  </si>
+  <si>
+    <t>Airbnb</t>
+  </si>
+  <si>
+    <t>Número de Airbnb</t>
+  </si>
+  <si>
+    <t>Número de Pisos Turísticos</t>
+  </si>
+  <si>
+    <t>Número de Pisos Turisticos</t>
+  </si>
+  <si>
+    <t>Renta</t>
+  </si>
+  <si>
+    <t>Renta neta media por persona</t>
+  </si>
+  <si>
+    <t>Renda neta mitjana per persona</t>
+  </si>
+  <si>
+    <t>Renta neta media por hogar</t>
+  </si>
+  <si>
+    <t>Renda neta mitjana per llar</t>
+  </si>
+  <si>
+    <t>Media de la renta por unidad de consumo</t>
+  </si>
+  <si>
+    <t>Mitjana de la renda per unitat de consum</t>
+  </si>
+  <si>
+    <t>Porcentaje de ingresos - Salarios</t>
+  </si>
+  <si>
+    <t>Percentatge d'ingressos procedents de salaris</t>
+  </si>
+  <si>
+    <t>Porcentaje de ingresos - Pensiones</t>
+  </si>
+  <si>
+    <t>Percentatge d'ingressos procedents de pensions</t>
+  </si>
+  <si>
+    <t>Porcentaje de ingresos - Desocupación</t>
+  </si>
+  <si>
+    <t>Percentatge d'ingressos procedents de prestacions per desocupació</t>
+  </si>
+  <si>
+    <t>Porcentaje de ingresos - Incapacidad</t>
+  </si>
+  <si>
+    <t>Percentatge d'ingressos procedents d'altres prestacions (incapacitat dependència...).</t>
+  </si>
+  <si>
+    <t>Porcentaje de ingresos - Arrendamientos</t>
+  </si>
+  <si>
+    <t>Percentatge d'ingressos procedents d'altres ingressos (arrendament d'immobles rendiments d'activitats econòmiques)</t>
+  </si>
+  <si>
+    <t>Vulnerabilidad</t>
+  </si>
+  <si>
+    <t>Índice de Gini</t>
+  </si>
+  <si>
+    <t>Índex de Gini</t>
+  </si>
+  <si>
+    <t>Distribución de la renta P80/P20</t>
+  </si>
+  <si>
+    <t>Distribució de la renda P80/P20</t>
+  </si>
+  <si>
+    <t>Total general</t>
+  </si>
+  <si>
+    <t>Cuenta de Ind_Esp</t>
+  </si>
+  <si>
+    <t>(Varios elementos)</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Variables</t>
   </si>
 </sst>
 </file>
@@ -531,7 +1063,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -711,8 +1243,14 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -827,6 +1365,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -872,8 +1428,15 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -930,6 +1493,1699 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Botija Sanz, Javier" refreshedDate="44912.793120601855" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="139">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:E140" sheet="indicadores"/>
+  </cacheSource>
+  <cacheFields count="5">
+    <cacheField name="Indicador" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="475" count="139">
+        <n v="1"/>
+        <n v="2"/>
+        <n v="3"/>
+        <n v="4"/>
+        <n v="5"/>
+        <n v="6"/>
+        <n v="7"/>
+        <n v="8"/>
+        <n v="9"/>
+        <n v="10"/>
+        <n v="11"/>
+        <n v="12"/>
+        <n v="13"/>
+        <n v="14"/>
+        <n v="15"/>
+        <n v="16"/>
+        <n v="17"/>
+        <n v="18"/>
+        <n v="19"/>
+        <n v="20"/>
+        <n v="21"/>
+        <n v="22"/>
+        <n v="23"/>
+        <n v="24"/>
+        <n v="25"/>
+        <n v="26"/>
+        <n v="27"/>
+        <n v="28"/>
+        <n v="29"/>
+        <n v="30"/>
+        <n v="31"/>
+        <n v="32"/>
+        <n v="33"/>
+        <n v="34"/>
+        <n v="35"/>
+        <n v="36"/>
+        <n v="37"/>
+        <n v="38"/>
+        <n v="39"/>
+        <n v="40"/>
+        <n v="41"/>
+        <n v="42"/>
+        <n v="43"/>
+        <n v="44"/>
+        <n v="45"/>
+        <n v="46"/>
+        <n v="47"/>
+        <n v="48"/>
+        <n v="49"/>
+        <n v="50"/>
+        <n v="51"/>
+        <n v="52"/>
+        <n v="53"/>
+        <n v="54"/>
+        <n v="55"/>
+        <n v="56"/>
+        <n v="57"/>
+        <n v="58"/>
+        <n v="59"/>
+        <n v="60"/>
+        <n v="61"/>
+        <n v="62"/>
+        <n v="63"/>
+        <n v="64"/>
+        <n v="65"/>
+        <n v="66"/>
+        <n v="67"/>
+        <n v="68"/>
+        <n v="69"/>
+        <n v="70"/>
+        <n v="71"/>
+        <n v="72"/>
+        <n v="73"/>
+        <n v="74"/>
+        <n v="75"/>
+        <n v="76"/>
+        <n v="77"/>
+        <n v="78"/>
+        <n v="79"/>
+        <n v="80"/>
+        <n v="81"/>
+        <n v="82"/>
+        <n v="83"/>
+        <n v="84"/>
+        <n v="85"/>
+        <n v="86"/>
+        <n v="87"/>
+        <n v="88"/>
+        <n v="89"/>
+        <n v="90"/>
+        <n v="91"/>
+        <n v="92"/>
+        <n v="93"/>
+        <n v="94"/>
+        <n v="95"/>
+        <n v="96"/>
+        <n v="97"/>
+        <n v="98"/>
+        <n v="101"/>
+        <n v="102"/>
+        <n v="103"/>
+        <n v="104"/>
+        <n v="105"/>
+        <n v="106"/>
+        <n v="107"/>
+        <n v="108"/>
+        <n v="109"/>
+        <n v="110"/>
+        <n v="111"/>
+        <n v="112"/>
+        <n v="113"/>
+        <n v="114"/>
+        <n v="115"/>
+        <n v="116"/>
+        <n v="117"/>
+        <n v="118"/>
+        <n v="119"/>
+        <n v="120"/>
+        <n v="121"/>
+        <n v="122"/>
+        <n v="123"/>
+        <n v="124"/>
+        <n v="200"/>
+        <n v="201"/>
+        <n v="202"/>
+        <n v="203"/>
+        <n v="204"/>
+        <n v="301"/>
+        <n v="302"/>
+        <n v="401"/>
+        <n v="402"/>
+        <n v="403"/>
+        <n v="407"/>
+        <n v="408"/>
+        <n v="409"/>
+        <n v="410"/>
+        <n v="411"/>
+        <n v="474"/>
+        <n v="475"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Tema" numFmtId="0">
+      <sharedItems count="7">
+        <s v="Población"/>
+        <s v="Transporte"/>
+        <s v="Edificación y Vivienda"/>
+        <s v="Actividad Económica Renta y Consumo"/>
+        <s v="Participación Ciudadana"/>
+        <s v="Airbnb"/>
+        <s v="Renta"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="SubTema" numFmtId="0">
+      <sharedItems count="13">
+        <s v="Estructura de la población"/>
+        <s v="Convivencia"/>
+        <s v="Movimiento natural de la población"/>
+        <s v="Movimientos migratorios"/>
+        <s v="Movimientos Intraurbanos"/>
+        <s v="Vehículos"/>
+        <s v="Vivienda"/>
+        <s v="Actividad Económica"/>
+        <s v="Consultas Electorales"/>
+        <s v="Servicios"/>
+        <s v="Airbnb"/>
+        <s v="Renta"/>
+        <s v="Vulnerabilidad"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Ind_Esp" numFmtId="0">
+      <sharedItems count="138">
+        <s v="Población residente"/>
+        <s v="Densidad de población"/>
+        <s v="Variación anual de la población"/>
+        <s v="Relación de masculinidad de la población"/>
+        <s v="Proporción de población menor de 16 años"/>
+        <s v="Proporción de población de 16 a 64 años"/>
+        <s v="Proporción de población mayor de 64 años"/>
+        <s v="Población de 0 a 2 años"/>
+        <s v="Población de 3 a 5 años"/>
+        <s v="Población de 6 a 11 años"/>
+        <s v="Población de 12 a 15 años"/>
+        <s v="Proporción de población menor de 18 años"/>
+        <s v="Edad media"/>
+        <s v="Edad media de los hombres"/>
+        <s v="Edad media de las mujeres"/>
+        <s v="Índice de envejecimiento"/>
+        <s v="Índice de sobre envejecimiento"/>
+        <s v="Índice demográfico de dependencia global"/>
+        <s v="Raó de progresividad demográfica"/>
+        <s v="Índice de estructura de la población en edad activa"/>
+        <s v="Índice de reemplazo de la población en edad activa"/>
+        <s v="Porcentaje de población de nacionalidad extranjera"/>
+        <s v="Distribución porcentual de la población de nacionalidad extranjera"/>
+        <s v="Relación de masculinidad de la población de nacionalidad extranjera"/>
+        <s v="Edad media de la población extranjera"/>
+        <s v="Distribución porcentual de población de nacionalidad extranjera de la Unión Europea"/>
+        <s v="Distribución porcentual de población de nacionalidad extranjera Europea no UE"/>
+        <s v="Distribución porcentual de población de nacionalidad extranjera de África"/>
+        <s v="Distribución porcentual de población de nacionalidad extranjera de América del Norte"/>
+        <s v="Distribución porcentual de población de nacionalidad extranjera de América Central"/>
+        <s v="Distribución porcentual de población de nacionalidad extranjera de América del Sur"/>
+        <s v="Distribución porcentual de población de nacionalidad extranjera de Asia Oceanía o apátrida"/>
+        <s v="Índice de autoctonía"/>
+        <s v="Índice de autoctonía provincial"/>
+        <s v="Índice de autoctonía Comunidad Valenciana"/>
+        <s v="Índice de autoctonía estatal"/>
+        <s v="Índice de aloctonía estatal"/>
+        <s v="Índice de autoctonía UE"/>
+        <s v="Población de 18 años o más con nivel de estudios inferior a Bachillerato"/>
+        <s v="Población de 18 o más años con nivel de estudios de Bachillerato o superior"/>
+        <s v="Número medio de personas por unidad familiar"/>
+        <s v="Porcentaje de unidades familiares unipersonales"/>
+        <s v="Porcentaje de unidades familiares de 2 personas"/>
+        <s v="Porcentaje de unidades familiares de 3 personas"/>
+        <s v="Porcentaje de unidades familiares de 4 personas"/>
+        <s v="Porcentaje de unidades familiares de 5 o más personas"/>
+        <s v="Porcentaje de unidades familiares de sólo personas mayores de 64 años"/>
+        <s v="Porcentaje de unidades familiares de sólo personas mayores de 79 años"/>
+        <s v="Mayores de 64 años en unidades familiares unipersonales"/>
+        <s v="Porcentaje de unidades familiares con menores de 18 años"/>
+        <s v="Porcentaje de unidades familiares con un menor de 18 años"/>
+        <s v="Porcentaje de unidades familiares con dos menores de 18 años"/>
+        <s v="Porcentaje de unidades familiares con tres o más menores de 18 años"/>
+        <s v="Nacimientos registrados en el Padrón"/>
+        <s v="Tasa bruta de natalidad registrada en el Padrón"/>
+        <s v="Tasa global de fecundidad registrada en el Padró"/>
+        <s v="Número de defunciones registradas en el Padrón"/>
+        <s v="Tasa bruta de mortalidad registrada en el Padrón"/>
+        <s v="Tasa de mortalidad de los hombres registrada en el Padrón"/>
+        <s v="Tasa de mortalidad de las mujeres registrada en el Padrón"/>
+        <s v="Crecimiento vegetativo registrado en el Padrón"/>
+        <s v="Población inmigrante"/>
+        <s v="Tasa bruta de inmigración intraurbana"/>
+        <s v="Proporción de inmigrantes de nacionalidad extranjera"/>
+        <s v="Población emigrante"/>
+        <s v="Tasa bruta de emigración"/>
+        <s v="Saldo migratorio"/>
+        <s v="Tasa bruta de emigración intraurbana"/>
+        <s v="Saldo neto"/>
+        <s v="Número de vehículos"/>
+        <s v="Distribución porcentual del número de vehículos"/>
+        <s v="Número de turismos"/>
+        <s v="Distribución porcentual del número de turismos"/>
+        <s v="Turismos particulares por cada 1.000 habitantes"/>
+        <s v="Porcentaje de turismos particulares de 10 y más años"/>
+        <s v="Edad media de los turismos particulares"/>
+        <s v="Porcentaje de turismos particulares de 16 y más CV"/>
+        <s v="Motocicletas por cada 1.000 habitantes"/>
+        <s v="Número de viviendas"/>
+        <s v="Superficie construida media de las viviendas"/>
+        <s v="Porcentaje de viviendas de menos de 60 metros cuadrados"/>
+        <s v="Porcentaje de viviendas de menos de 80 metros cuadrados"/>
+        <s v="Porcentaje de viviendas de más de 120 metros cuadrados"/>
+        <s v="Porcentaje de viviendas con menos de 10 años"/>
+        <s v="Porcentaje de viviendas con menos de 5 años"/>
+        <s v="Porcentaje de viviendas con más de 50 años"/>
+        <s v="Valor catastral medio por vivienda"/>
+        <s v="Valor catastral medio por metro cuadrado"/>
+        <s v="% Viviendas con valor catastral menor de 18.000 euros"/>
+        <s v="% Viviendas con valor catastral mayor de 48.000 euros"/>
+        <s v="Superficie total de solares"/>
+        <s v="Superficie total de aparcamientos"/>
+        <s v="Superficie de aparcamiento por vivienda"/>
+        <s v="Superficie de aparcamiento por turismo"/>
+        <s v="Actividades en el Impuesto de Actividades Económicas"/>
+        <s v="Grado de terciarización económica"/>
+        <s v="Actividades económicas por 1.000 habitantes"/>
+        <s v="% Participación en las Elecciones Locales"/>
+        <s v="% Votos a Compromís en las Elecciones Locales"/>
+        <s v="% Votos en el PP en las Elecciones Locales"/>
+        <s v="% Votos en el PSOE en las Elecciones Locales"/>
+        <s v="% Votos en Ciudadanos en las Elecciones Locales"/>
+        <s v="% Votos a VOX en las Elecciones Locales"/>
+        <s v="% Participación en las Elecciones Autonómicas"/>
+        <s v="% Votos a Compromís a las Elecciones Autonómicas"/>
+        <s v="% Votos en el PSOE en las Elecciones Autonómicas"/>
+        <s v="% Votos en Ciudadanos en las Elecciones Autonómicas"/>
+        <s v="% Votos en el PP en las Elecciones Autonómicas"/>
+        <s v="% Votos a VOX en las Elecciones Autonómicas"/>
+        <s v="% Participación en las Elecciones Generales"/>
+        <s v="% Votos en el PSOE en las Elecciones Generales"/>
+        <s v="% Votos en el PP en las Elecciones Generales"/>
+        <s v="% Votos a VOX en las Elecciones Generales"/>
+        <s v="% Votos en PODEMOS-EUPV en las Elecciones Generales"/>
+        <s v="% Votos a Compromís en las Elecciones Generales"/>
+        <s v="% Participación en las Elecciones Europeas"/>
+        <s v="% Votos en el PSOE en las Elecciones Europeas"/>
+        <s v="% Votos en el PP en las Elecciones Europeas"/>
+        <s v="% Votos en Cs en las Elecciones Europeas"/>
+        <s v="% Votos en PODEMOS-IU en las Elecciones Europeas"/>
+        <s v="% Votos a Compromís por Europa en las Elecciones Europeas"/>
+        <s v="Total Servicios"/>
+        <s v="Comercio Restaurantes Hostelería y Reparaciones"/>
+        <s v="Transportes y comunicaciones"/>
+        <s v="Instituciones financieras y seguros"/>
+        <s v="Otros servicios"/>
+        <s v="Número de Airbnb"/>
+        <s v="Número de Pisos Turísticos"/>
+        <s v="Renta neta media por persona"/>
+        <s v="Renta neta media por hogar"/>
+        <s v="Media de la renta por unidad de consumo"/>
+        <s v="Porcentaje de ingresos - Salarios"/>
+        <s v="Porcentaje de ingresos - Pensiones"/>
+        <s v="Porcentaje de ingresos - Desocupación"/>
+        <s v="Porcentaje de ingresos - Incapacidad"/>
+        <s v="Porcentaje de ingresos - Arrendamientos"/>
+        <s v="Índice de Gini"/>
+        <s v="Distribución de la renta P80/P20"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Ind_Val" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="139">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Poblaci√≥ resident"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="Densitat de poblaci√≥"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="Variaci√≥ anual de la poblaci√≥"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+    <s v="Relaci√≥ de masculinitat de la poblaci√≥"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="4"/>
+    <s v="Proporci√≥ de poblaci√≥ menor de 16 anys"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="5"/>
+    <s v="Proporci√≥ de poblaci√≥ de 16 a 64 anys"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="6"/>
+    <s v="Proporci√≥ de poblaci√≥ major de 64 anys"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="7"/>
+    <s v="Poblaci√≥ de 0 a 2 anys"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="8"/>
+    <s v="Poblaci√≥ de 3 a 5 anys"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="9"/>
+    <s v="Poblaci√≥ de 6 a 11 anys"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="10"/>
+    <s v="Poblaci√≥ de 12 a 15 anys"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="11"/>
+    <s v="Proporci√≥ de poblaci√≥ menor de 18 anys"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="12"/>
+    <s v="Edat mitjana"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="13"/>
+    <s v="Edat mitjana dels homes"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="14"/>
+    <s v="Edat mitjana de les dones"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="15"/>
+    <s v="√çndex d'envelliment"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="16"/>
+    <s v="√çndex de sobrenvelliment"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="17"/>
+    <s v="√çndex demogr√†fic de depend√®ncia global"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="18"/>
+    <s v="Ra√≥ de progressivitat demogr√†fica"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="19"/>
+    <s v="√çndex d'estructura de la poblaci√≥ en edat activa"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="20"/>
+    <s v="√çndex de reempla√ßament de la poblaci√≥ en edat activa"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="21"/>
+    <s v="Percentatge de poblaci√≥ de nacionalitat estrangera"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="22"/>
+    <s v="Distribuci√≥ percentual de la poblaci√≥ de nacionalitat estrangera"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="23"/>
+    <s v="Relaci√≥ de masculinitat de la poblaci√≥ de nacionalitat estrangera"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="24"/>
+    <s v="Edat mitjana de la poblaci√≥ estrangera"/>
+  </r>
+  <r>
+    <x v="25"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="25"/>
+    <s v="Distribuci√≥ percentual de poblaci√≥ de nacionalitat estrangera de la Uni√≥ Europea"/>
+  </r>
+  <r>
+    <x v="26"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="26"/>
+    <s v="Distribuci√≥ percentual de poblaci√≥ de nacionalitat estrangera Europea no UE"/>
+  </r>
+  <r>
+    <x v="27"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="27"/>
+    <s v="Distribuci√≥ percentual de poblaci√≥ de nacionalitat estrangera d'√Äfrica"/>
+  </r>
+  <r>
+    <x v="28"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="28"/>
+    <s v="Distribuci√≥ percentual de poblaci√≥ de nacionalitat estrangera d'Am√®rica del Nord"/>
+  </r>
+  <r>
+    <x v="29"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="29"/>
+    <s v="Distribuci√≥ percentual de poblaci√≥ de nacionalitat estrangera d'Am√®rica Central"/>
+  </r>
+  <r>
+    <x v="30"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="30"/>
+    <s v="Distribuci√≥ percentual de poblaci√≥ de nacionalitat estrangera d'Am√®rica del Sud"/>
+  </r>
+  <r>
+    <x v="31"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="31"/>
+    <s v="Distribuci√≥ percentual de poblaci√≥ de nacionalitat estrangera d'√Äsia, Oceania o ap√†trida"/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="32"/>
+    <s v="√çndex d'autoctonia"/>
+  </r>
+  <r>
+    <x v="33"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="33"/>
+    <s v="√çndex d'autoctonia provincial"/>
+  </r>
+  <r>
+    <x v="34"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="34"/>
+    <s v="√çndex d'autoctonia Comunitat Valenciana"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="35"/>
+    <s v="√çndex d'autoctonia estatal"/>
+  </r>
+  <r>
+    <x v="36"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="36"/>
+    <s v="√çndex d'aloctonia estatal"/>
+  </r>
+  <r>
+    <x v="37"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="37"/>
+    <s v="√çndex d'autoctonia UE"/>
+  </r>
+  <r>
+    <x v="38"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="38"/>
+    <s v="Poblaci√≥ de 18 anys o m√©s amb nivell d'estudis inferior a Batxillerat"/>
+  </r>
+  <r>
+    <x v="39"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="39"/>
+    <s v="Poblaci√≥ de 18 anys o m√©s amb nivell d'estudis de Batxillerat o superior"/>
+  </r>
+  <r>
+    <x v="40"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="40"/>
+    <s v="Nombre mitj√† de persones per full familiar"/>
+  </r>
+  <r>
+    <x v="41"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="41"/>
+    <s v="Percentatge de fulls familiars unipersonals"/>
+  </r>
+  <r>
+    <x v="42"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="42"/>
+    <s v="Percentatge de fulls familiars de 2 persones"/>
+  </r>
+  <r>
+    <x v="43"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="43"/>
+    <s v="Percentatge de fulls familiars de 3 persones"/>
+  </r>
+  <r>
+    <x v="44"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="44"/>
+    <s v="Percentatge de fulls familiars de 4 persones"/>
+  </r>
+  <r>
+    <x v="45"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="45"/>
+    <s v="Percentatge de fulls familiars de 5 o m√©s persones"/>
+  </r>
+  <r>
+    <x v="46"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="46"/>
+    <s v="Percentatge de fulls familiars de nom√©s persones majors de 64 anys"/>
+  </r>
+  <r>
+    <x v="47"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="47"/>
+    <s v="Percentatge de fulls familiars de nom√©s persones majors de 79 anys"/>
+  </r>
+  <r>
+    <x v="48"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="48"/>
+    <s v="Majors de 64 anys en fulls familiars unipersonals"/>
+  </r>
+  <r>
+    <x v="49"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="49"/>
+    <s v="Percentatge de fulls familiars amb menors de 18 anys"/>
+  </r>
+  <r>
+    <x v="50"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="50"/>
+    <s v="Percentatge de fulls familiars amb un menor de 18 anys"/>
+  </r>
+  <r>
+    <x v="51"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="51"/>
+    <s v="Percentatge de fulls familiars amb dos menors de 18 anys"/>
+  </r>
+  <r>
+    <x v="52"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="52"/>
+    <s v="Percentatge de fulls familiars amb tres o m√©s menors de 18 anys"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="53"/>
+    <s v="Naixements registrats al Padr√≥"/>
+  </r>
+  <r>
+    <x v="54"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="54"/>
+    <s v="Taxa bruta de natalitat registrada al Padr√≥"/>
+  </r>
+  <r>
+    <x v="55"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="55"/>
+    <s v="Taxa global de fecunditat registrada al Padr√≥"/>
+  </r>
+  <r>
+    <x v="56"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="56"/>
+    <s v="Nombre de defuncions registrades al Padr√≥"/>
+  </r>
+  <r>
+    <x v="57"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="57"/>
+    <s v="Taxa bruta de mortalitat registrada al Padr√≥"/>
+  </r>
+  <r>
+    <x v="58"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="58"/>
+    <s v="Taxa de mortalitat dels homes registrada al Padr√≥"/>
+  </r>
+  <r>
+    <x v="59"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="59"/>
+    <s v="Taxa de mortalitat de les dones registrada al Padr√≥"/>
+  </r>
+  <r>
+    <x v="60"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="60"/>
+    <s v="Creixement vegetatiu registrat al Padr√≥"/>
+  </r>
+  <r>
+    <x v="61"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="61"/>
+    <s v="Poblaci√≥ immigrant"/>
+  </r>
+  <r>
+    <x v="62"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="62"/>
+    <s v="Taxa bruta d'immigraci√≥"/>
+  </r>
+  <r>
+    <x v="63"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="63"/>
+    <s v="Proporci√≥ d'immigrants de nacionalitat estrangera"/>
+  </r>
+  <r>
+    <x v="64"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="64"/>
+    <s v="Poblaci√≥ emigrant"/>
+  </r>
+  <r>
+    <x v="65"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="65"/>
+    <s v="Taxa bruta d'emigraci√≥"/>
+  </r>
+  <r>
+    <x v="66"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="66"/>
+    <s v="Saldo migratori"/>
+  </r>
+  <r>
+    <x v="67"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="62"/>
+    <s v="Taxa bruta de inmigraci√≥ intraurbana"/>
+  </r>
+  <r>
+    <x v="68"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="67"/>
+    <s v="Taxa bruta d'emigraci√≥ intraurbana"/>
+  </r>
+  <r>
+    <x v="69"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="68"/>
+    <s v="Saldo net"/>
+  </r>
+  <r>
+    <x v="70"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="69"/>
+    <s v="Nombre de vehicles"/>
+  </r>
+  <r>
+    <x v="71"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="70"/>
+    <s v="Distribuci√≥ percentual del nombre de vehicles"/>
+  </r>
+  <r>
+    <x v="72"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="71"/>
+    <s v="Nombre de turismes"/>
+  </r>
+  <r>
+    <x v="73"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="72"/>
+    <s v="Distribuci√≥ percentual del nombre de turismes"/>
+  </r>
+  <r>
+    <x v="74"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="73"/>
+    <s v="Turismes particulars per cada 1.000 habitants"/>
+  </r>
+  <r>
+    <x v="75"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="74"/>
+    <s v="Percentatge de turismes particulars de 10 i m√©s anys"/>
+  </r>
+  <r>
+    <x v="76"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="75"/>
+    <s v="Edat mitjana dels turismes particulars"/>
+  </r>
+  <r>
+    <x v="77"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="76"/>
+    <s v="Percentatge de turismes particulars de 16 i m√©s CV"/>
+  </r>
+  <r>
+    <x v="78"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="77"/>
+    <s v="Motocicletes per cada 1.000 habitants"/>
+  </r>
+  <r>
+    <x v="79"/>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="78"/>
+    <s v="Nombre d'habitatges"/>
+  </r>
+  <r>
+    <x v="80"/>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="79"/>
+    <s v="Superf√≠cie constru√Øda mitjana dels habitatges"/>
+  </r>
+  <r>
+    <x v="81"/>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="80"/>
+    <s v="Percentatge d'habitatges de menys de 60 metres quadrats"/>
+  </r>
+  <r>
+    <x v="82"/>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="81"/>
+    <s v="Percentatge d'habitatges de menys de 80 metres quadrats"/>
+  </r>
+  <r>
+    <x v="83"/>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="82"/>
+    <s v="Percentatge d'habitatges de m√©s de 120 metres quadrats"/>
+  </r>
+  <r>
+    <x v="84"/>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="83"/>
+    <s v="Percentatge d'habitatges amb menys de 10 anys"/>
+  </r>
+  <r>
+    <x v="85"/>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="84"/>
+    <s v="Percentatge d'habitatges amb menys de 5 anys"/>
+  </r>
+  <r>
+    <x v="86"/>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="85"/>
+    <s v="Percentatge d'habitatges amb m√©s de 50 anys"/>
+  </r>
+  <r>
+    <x v="87"/>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="86"/>
+    <s v="Valor cadastral mitj√† per habitatge"/>
+  </r>
+  <r>
+    <x v="88"/>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="87"/>
+    <s v="Valor cadastral mitj√† per metre quadrat"/>
+  </r>
+  <r>
+    <x v="89"/>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="88"/>
+    <s v="% Habitatges amb valor cadastral menor de 18.000 euros"/>
+  </r>
+  <r>
+    <x v="90"/>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="89"/>
+    <s v="% Habitatges amb valor cadastral major de 48.000 euros"/>
+  </r>
+  <r>
+    <x v="91"/>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="90"/>
+    <s v="Superf√≠cie total de solars"/>
+  </r>
+  <r>
+    <x v="92"/>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="91"/>
+    <s v="Superf√≠cie total d'aparcaments"/>
+  </r>
+  <r>
+    <x v="93"/>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="92"/>
+    <s v="Superf√≠cie d'aparcament per habitatge"/>
+  </r>
+  <r>
+    <x v="94"/>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="93"/>
+    <s v="Superf√≠cie d'aparcament per turisme"/>
+  </r>
+  <r>
+    <x v="95"/>
+    <x v="3"/>
+    <x v="7"/>
+    <x v="94"/>
+    <s v="Activitats a l'Impost d'Activitats Econ√≤miques"/>
+  </r>
+  <r>
+    <x v="96"/>
+    <x v="3"/>
+    <x v="7"/>
+    <x v="95"/>
+    <s v="Grau de terciaritzaci√≥ econ√≤mica"/>
+  </r>
+  <r>
+    <x v="97"/>
+    <x v="3"/>
+    <x v="7"/>
+    <x v="96"/>
+    <s v="Activitats econ√≤miques per 1.000 habitants"/>
+  </r>
+  <r>
+    <x v="98"/>
+    <x v="4"/>
+    <x v="8"/>
+    <x v="97"/>
+    <s v="% Participaci√≥ a les Eleccions Locals"/>
+  </r>
+  <r>
+    <x v="99"/>
+    <x v="4"/>
+    <x v="8"/>
+    <x v="98"/>
+    <s v="% Vots a Comprom√≠s a les Eleccions Locals"/>
+  </r>
+  <r>
+    <x v="100"/>
+    <x v="4"/>
+    <x v="8"/>
+    <x v="99"/>
+    <s v="% Vots al PP a les Eleccions Locals"/>
+  </r>
+  <r>
+    <x v="101"/>
+    <x v="4"/>
+    <x v="8"/>
+    <x v="100"/>
+    <s v="% Vots al PSOE a les Eleccions Locals"/>
+  </r>
+  <r>
+    <x v="102"/>
+    <x v="4"/>
+    <x v="8"/>
+    <x v="101"/>
+    <s v="% Vots a Ciudadanos a les Eleccions Locals"/>
+  </r>
+  <r>
+    <x v="103"/>
+    <x v="4"/>
+    <x v="8"/>
+    <x v="102"/>
+    <s v="% Vots a VOX a les Eleccions Locals"/>
+  </r>
+  <r>
+    <x v="104"/>
+    <x v="4"/>
+    <x v="8"/>
+    <x v="103"/>
+    <s v="% Participaci√≥ a les Eleccions Auton√≤miques"/>
+  </r>
+  <r>
+    <x v="105"/>
+    <x v="4"/>
+    <x v="8"/>
+    <x v="104"/>
+    <s v="% Vots a Comprom√≠s a les Eleccions Auton√≤miques"/>
+  </r>
+  <r>
+    <x v="106"/>
+    <x v="4"/>
+    <x v="8"/>
+    <x v="105"/>
+    <s v="% Vots al PSOE a les Eleccions Auton√≤miques"/>
+  </r>
+  <r>
+    <x v="107"/>
+    <x v="4"/>
+    <x v="8"/>
+    <x v="106"/>
+    <s v="% Vots a Ciudadanos a les Eleccions Auton√≤miques"/>
+  </r>
+  <r>
+    <x v="108"/>
+    <x v="4"/>
+    <x v="8"/>
+    <x v="107"/>
+    <s v="% Vots al PP a les Eleccions Auton√≤miques"/>
+  </r>
+  <r>
+    <x v="109"/>
+    <x v="4"/>
+    <x v="8"/>
+    <x v="108"/>
+    <s v="% Vots a VOX a les Eleccions Auton√≤miques"/>
+  </r>
+  <r>
+    <x v="110"/>
+    <x v="4"/>
+    <x v="8"/>
+    <x v="109"/>
+    <s v="% Participaci√≥ a les Eleccions Generals"/>
+  </r>
+  <r>
+    <x v="111"/>
+    <x v="4"/>
+    <x v="8"/>
+    <x v="110"/>
+    <s v="% Vots al PSOE a les Eleccions Generals"/>
+  </r>
+  <r>
+    <x v="112"/>
+    <x v="4"/>
+    <x v="8"/>
+    <x v="111"/>
+    <s v="% Vots al PP a les Eleccions Generals"/>
+  </r>
+  <r>
+    <x v="113"/>
+    <x v="4"/>
+    <x v="8"/>
+    <x v="112"/>
+    <s v="% Vots a VOX a les Eleccions Generals"/>
+  </r>
+  <r>
+    <x v="114"/>
+    <x v="4"/>
+    <x v="8"/>
+    <x v="113"/>
+    <s v="% Vots a PODEMOS-EUPV a les Eleccions Generals"/>
+  </r>
+  <r>
+    <x v="115"/>
+    <x v="4"/>
+    <x v="8"/>
+    <x v="114"/>
+    <s v="% Vots a Comprom√≠s a les Eleccions Generals"/>
+  </r>
+  <r>
+    <x v="116"/>
+    <x v="4"/>
+    <x v="8"/>
+    <x v="115"/>
+    <s v="% Participaci√≥ a les Eleccions Europees"/>
+  </r>
+  <r>
+    <x v="117"/>
+    <x v="4"/>
+    <x v="8"/>
+    <x v="116"/>
+    <s v="% Vots al PSOE a les Eleccions Europees"/>
+  </r>
+  <r>
+    <x v="118"/>
+    <x v="4"/>
+    <x v="8"/>
+    <x v="117"/>
+    <s v="% Vots al PP a les Eleccions Europees"/>
+  </r>
+  <r>
+    <x v="119"/>
+    <x v="4"/>
+    <x v="8"/>
+    <x v="118"/>
+    <s v="% Vots a Cs a les Eleccions Europees"/>
+  </r>
+  <r>
+    <x v="120"/>
+    <x v="4"/>
+    <x v="8"/>
+    <x v="119"/>
+    <s v="% Vots a PODEMOS-IU a les Eleccions Europees"/>
+  </r>
+  <r>
+    <x v="121"/>
+    <x v="4"/>
+    <x v="8"/>
+    <x v="120"/>
+    <s v="% Vots a Comprom√≠s per Europa a les Eleccions Europees"/>
+  </r>
+  <r>
+    <x v="122"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="121"/>
+    <s v="Total Servicios"/>
+  </r>
+  <r>
+    <x v="123"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="122"/>
+    <s v="Comercio Restaurantes Hostelería y Reparaciones"/>
+  </r>
+  <r>
+    <x v="124"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="123"/>
+    <s v="Transportes y comunicaciones"/>
+  </r>
+  <r>
+    <x v="125"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="124"/>
+    <s v="Instituciones financieras y seguros"/>
+  </r>
+  <r>
+    <x v="126"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="125"/>
+    <s v="Otros servicios"/>
+  </r>
+  <r>
+    <x v="127"/>
+    <x v="5"/>
+    <x v="10"/>
+    <x v="126"/>
+    <s v="Número de Airbnb"/>
+  </r>
+  <r>
+    <x v="128"/>
+    <x v="5"/>
+    <x v="10"/>
+    <x v="127"/>
+    <s v="Número de Pisos Turisticos"/>
+  </r>
+  <r>
+    <x v="129"/>
+    <x v="6"/>
+    <x v="11"/>
+    <x v="128"/>
+    <s v="Renda neta mitjana per persona"/>
+  </r>
+  <r>
+    <x v="130"/>
+    <x v="6"/>
+    <x v="11"/>
+    <x v="129"/>
+    <s v="Renda neta mitjana per llar"/>
+  </r>
+  <r>
+    <x v="131"/>
+    <x v="6"/>
+    <x v="11"/>
+    <x v="130"/>
+    <s v="Mitjana de la renda per unitat de consum"/>
+  </r>
+  <r>
+    <x v="132"/>
+    <x v="6"/>
+    <x v="11"/>
+    <x v="131"/>
+    <s v="Percentatge d'ingressos procedents de salaris"/>
+  </r>
+  <r>
+    <x v="133"/>
+    <x v="6"/>
+    <x v="11"/>
+    <x v="132"/>
+    <s v="Percentatge d'ingressos procedents de pensions"/>
+  </r>
+  <r>
+    <x v="134"/>
+    <x v="6"/>
+    <x v="11"/>
+    <x v="133"/>
+    <s v="Percentatge d'ingressos procedents de prestacions per desocupació"/>
+  </r>
+  <r>
+    <x v="135"/>
+    <x v="6"/>
+    <x v="11"/>
+    <x v="134"/>
+    <s v="Percentatge d'ingressos procedents d'altres prestacions (incapacitat dependència...)."/>
+  </r>
+  <r>
+    <x v="136"/>
+    <x v="6"/>
+    <x v="11"/>
+    <x v="135"/>
+    <s v="Percentatge d'ingressos procedents d'altres ingressos (arrendament d'immobles rendiments d'activitats econòmiques)"/>
+  </r>
+  <r>
+    <x v="137"/>
+    <x v="6"/>
+    <x v="12"/>
+    <x v="136"/>
+    <s v="Índex de Gini"/>
+  </r>
+  <r>
+    <x v="138"/>
+    <x v="6"/>
+    <x v="12"/>
+    <x v="137"/>
+    <s v="Distribució de la renda P80/P20"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TablaDinámica6" cacheId="31" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
+  <location ref="A3:C14" firstHeaderRow="2" firstDataRow="2" firstDataCol="2" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="5">
+    <pivotField axis="axisPage" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="140">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="108"/>
+        <item x="109"/>
+        <item x="110"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="113"/>
+        <item x="114"/>
+        <item x="115"/>
+        <item x="116"/>
+        <item x="117"/>
+        <item x="118"/>
+        <item x="119"/>
+        <item x="120"/>
+        <item x="121"/>
+        <item h="1" x="122"/>
+        <item h="1" x="123"/>
+        <item h="1" x="124"/>
+        <item h="1" x="125"/>
+        <item h="1" x="126"/>
+        <item h="1" x="127"/>
+        <item h="1" x="128"/>
+        <item h="1" x="129"/>
+        <item h="1" x="130"/>
+        <item h="1" x="131"/>
+        <item h="1" x="132"/>
+        <item h="1" x="133"/>
+        <item h="1" x="134"/>
+        <item h="1" x="135"/>
+        <item h="1" x="136"/>
+        <item h="1" x="137"/>
+        <item h="1" x="138"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="7">
+        <item x="3"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="1"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
+      <items count="14">
+        <item x="7"/>
+        <item x="10"/>
+        <item x="8"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="11"/>
+        <item x="9"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="12"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0">
+      <items count="139">
+        <item x="103"/>
+        <item x="115"/>
+        <item x="109"/>
+        <item x="97"/>
+        <item x="89"/>
+        <item x="88"/>
+        <item x="104"/>
+        <item x="114"/>
+        <item x="98"/>
+        <item x="120"/>
+        <item x="108"/>
+        <item x="112"/>
+        <item x="102"/>
+        <item x="106"/>
+        <item x="101"/>
+        <item x="118"/>
+        <item x="107"/>
+        <item x="117"/>
+        <item x="111"/>
+        <item x="99"/>
+        <item x="105"/>
+        <item x="116"/>
+        <item x="110"/>
+        <item x="100"/>
+        <item x="113"/>
+        <item x="119"/>
+        <item x="96"/>
+        <item x="94"/>
+        <item x="122"/>
+        <item x="60"/>
+        <item x="1"/>
+        <item x="137"/>
+        <item x="22"/>
+        <item x="27"/>
+        <item x="29"/>
+        <item x="28"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="72"/>
+        <item x="70"/>
+        <item x="12"/>
+        <item x="24"/>
+        <item x="14"/>
+        <item x="13"/>
+        <item x="75"/>
+        <item x="95"/>
+        <item x="36"/>
+        <item x="32"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="33"/>
+        <item x="37"/>
+        <item x="15"/>
+        <item x="19"/>
+        <item x="136"/>
+        <item x="20"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="124"/>
+        <item x="48"/>
+        <item x="130"/>
+        <item x="77"/>
+        <item x="53"/>
+        <item x="126"/>
+        <item x="56"/>
+        <item x="127"/>
+        <item x="71"/>
+        <item x="69"/>
+        <item x="78"/>
+        <item x="40"/>
+        <item x="125"/>
+        <item x="7"/>
+        <item x="10"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="64"/>
+        <item x="61"/>
+        <item x="0"/>
+        <item x="135"/>
+        <item x="133"/>
+        <item x="134"/>
+        <item x="132"/>
+        <item x="131"/>
+        <item x="21"/>
+        <item x="74"/>
+        <item x="76"/>
+        <item x="51"/>
+        <item x="49"/>
+        <item x="52"/>
+        <item x="50"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="41"/>
+        <item x="85"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="82"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="63"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="4"/>
+        <item x="11"/>
+        <item x="18"/>
+        <item x="3"/>
+        <item x="23"/>
+        <item x="129"/>
+        <item x="128"/>
+        <item x="66"/>
+        <item x="68"/>
+        <item x="79"/>
+        <item x="93"/>
+        <item x="92"/>
+        <item x="91"/>
+        <item x="90"/>
+        <item x="65"/>
+        <item x="67"/>
+        <item x="62"/>
+        <item x="57"/>
+        <item x="54"/>
+        <item x="59"/>
+        <item x="58"/>
+        <item x="55"/>
+        <item x="121"/>
+        <item x="123"/>
+        <item x="73"/>
+        <item x="87"/>
+        <item x="86"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="1"/>
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="10">
+    <i>
+      <x/>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="2"/>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="6"/>
+      <x v="10"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="0" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Cuenta de Ind_Esp" fld="3" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1229,625 +3485,2640 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A123"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:C29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="36.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>204</v>
+      </c>
+      <c r="B5" t="s">
+        <v>205</v>
+      </c>
+      <c r="C5" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>170</v>
+      </c>
+      <c r="B6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C6" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>212</v>
+      </c>
+      <c r="B7" t="s">
+        <v>213</v>
+      </c>
+      <c r="C7" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C10" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>144</v>
+      </c>
+      <c r="C11" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>131</v>
+      </c>
+      <c r="C12" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>150</v>
+      </c>
+      <c r="B13" t="s">
+        <v>151</v>
+      </c>
+      <c r="C13" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>294</v>
+      </c>
+      <c r="C14" s="2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B20" t="s">
+        <v>205</v>
+      </c>
+      <c r="C20" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B21" t="s">
+        <v>171</v>
+      </c>
+      <c r="C21" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B22" t="s">
+        <v>213</v>
+      </c>
+      <c r="C22" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="5"/>
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="5"/>
+      <c r="B25" t="s">
+        <v>114</v>
+      </c>
+      <c r="C25" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="5"/>
+      <c r="B26" t="s">
+        <v>144</v>
+      </c>
+      <c r="C26" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="4"/>
+      <c r="B27" t="s">
+        <v>131</v>
+      </c>
+      <c r="C27" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B28" t="s">
+        <v>151</v>
+      </c>
+      <c r="C28" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="B29" s="6"/>
+      <c r="C29" s="7">
+        <v>122</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E140"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="E2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="E3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="E4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="E5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="E6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="E7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="E8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="E9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="E10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="E11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="E12" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+      <c r="E13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+      <c r="E14" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+      <c r="E15" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+      <c r="E16" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+      <c r="E17" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+      <c r="E18" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+      <c r="E19" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+      <c r="E20" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+      <c r="E21" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+      <c r="E22" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+      <c r="E23" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
+      <c r="E24" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
+      <c r="E25" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
+      <c r="E26" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
+      <c r="E27" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
+      <c r="E28" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
+      <c r="E29" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
+      <c r="E30" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
+      <c r="E31" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
+      <c r="E32" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
+      <c r="E33" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
+      <c r="E34" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
+      <c r="E35" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
+      <c r="E36" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
+      <c r="E37" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
+      <c r="E38" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
+      <c r="E39" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
+      <c r="E40" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
+      <c r="E41" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
+      <c r="D42" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
+      <c r="E42" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" t="s">
+        <v>87</v>
+      </c>
+      <c r="D43" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
+      <c r="E43" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" t="s">
+        <v>87</v>
+      </c>
+      <c r="D44" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
+      <c r="E44" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" t="s">
+        <v>87</v>
+      </c>
+      <c r="D45" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
+      <c r="E45" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" t="s">
+        <v>87</v>
+      </c>
+      <c r="D46" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
+      <c r="E46" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" t="s">
+        <v>87</v>
+      </c>
+      <c r="D47" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
+      <c r="E47" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" t="s">
+        <v>87</v>
+      </c>
+      <c r="D48" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
+      <c r="E48" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" t="s">
+        <v>87</v>
+      </c>
+      <c r="D49" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
+      <c r="E49" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50" t="s">
+        <v>87</v>
+      </c>
+      <c r="D50" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
+      <c r="E50" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51" t="s">
+        <v>87</v>
+      </c>
+      <c r="D51" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
+      <c r="E51" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" t="s">
+        <v>87</v>
+      </c>
+      <c r="D52" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
+      <c r="E52" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" t="s">
+        <v>87</v>
+      </c>
+      <c r="D53" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
+      <c r="E53" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54" t="s">
+        <v>87</v>
+      </c>
+      <c r="D54" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
+      <c r="E54" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
+      <c r="D55" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
+      <c r="E55" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" t="s">
+        <v>114</v>
+      </c>
+      <c r="D56" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
+      <c r="E56" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57" t="s">
+        <v>114</v>
+      </c>
+      <c r="D57" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
+      <c r="E57" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58" t="s">
+        <v>114</v>
+      </c>
+      <c r="D58" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
+      <c r="E58" t="s">
         <v>122</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59" t="s">
+        <v>114</v>
+      </c>
+      <c r="D59" t="s">
+        <v>123</v>
+      </c>
+      <c r="E59" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>5</v>
+      </c>
+      <c r="C60" t="s">
+        <v>114</v>
+      </c>
+      <c r="D60" t="s">
+        <v>125</v>
+      </c>
+      <c r="E60" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" t="s">
+        <v>114</v>
+      </c>
+      <c r="D61" t="s">
+        <v>127</v>
+      </c>
+      <c r="E61" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" t="s">
+        <v>114</v>
+      </c>
+      <c r="D62" t="s">
+        <v>129</v>
+      </c>
+      <c r="E62" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" t="s">
+        <v>131</v>
+      </c>
+      <c r="D63" t="s">
+        <v>132</v>
+      </c>
+      <c r="E63" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" t="s">
+        <v>131</v>
+      </c>
+      <c r="D64" t="s">
+        <v>134</v>
+      </c>
+      <c r="E64" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" t="s">
+        <v>131</v>
+      </c>
+      <c r="D65" t="s">
+        <v>136</v>
+      </c>
+      <c r="E65" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" t="s">
+        <v>131</v>
+      </c>
+      <c r="D66" t="s">
+        <v>138</v>
+      </c>
+      <c r="E66" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" t="s">
+        <v>131</v>
+      </c>
+      <c r="D67" t="s">
+        <v>140</v>
+      </c>
+      <c r="E67" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" t="s">
+        <v>131</v>
+      </c>
+      <c r="D68" t="s">
+        <v>142</v>
+      </c>
+      <c r="E68" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>5</v>
+      </c>
+      <c r="C69" t="s">
+        <v>144</v>
+      </c>
+      <c r="D69" t="s">
+        <v>134</v>
+      </c>
+      <c r="E69" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>5</v>
+      </c>
+      <c r="C70" t="s">
+        <v>144</v>
+      </c>
+      <c r="D70" t="s">
+        <v>146</v>
+      </c>
+      <c r="E70" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>5</v>
+      </c>
+      <c r="C71" t="s">
+        <v>144</v>
+      </c>
+      <c r="D71" t="s">
+        <v>148</v>
+      </c>
+      <c r="E71" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>150</v>
+      </c>
+      <c r="C72" t="s">
+        <v>151</v>
+      </c>
+      <c r="D72" t="s">
+        <v>152</v>
+      </c>
+      <c r="E72" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>150</v>
+      </c>
+      <c r="C73" t="s">
+        <v>151</v>
+      </c>
+      <c r="D73" t="s">
+        <v>154</v>
+      </c>
+      <c r="E73" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>150</v>
+      </c>
+      <c r="C74" t="s">
+        <v>151</v>
+      </c>
+      <c r="D74" t="s">
+        <v>156</v>
+      </c>
+      <c r="E74" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>150</v>
+      </c>
+      <c r="C75" t="s">
+        <v>151</v>
+      </c>
+      <c r="D75" t="s">
+        <v>158</v>
+      </c>
+      <c r="E75" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>150</v>
+      </c>
+      <c r="C76" t="s">
+        <v>151</v>
+      </c>
+      <c r="D76" t="s">
+        <v>160</v>
+      </c>
+      <c r="E76" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>150</v>
+      </c>
+      <c r="C77" t="s">
+        <v>151</v>
+      </c>
+      <c r="D77" t="s">
+        <v>162</v>
+      </c>
+      <c r="E77" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>150</v>
+      </c>
+      <c r="C78" t="s">
+        <v>151</v>
+      </c>
+      <c r="D78" t="s">
+        <v>164</v>
+      </c>
+      <c r="E78" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>150</v>
+      </c>
+      <c r="C79" t="s">
+        <v>151</v>
+      </c>
+      <c r="D79" t="s">
+        <v>166</v>
+      </c>
+      <c r="E79" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>150</v>
+      </c>
+      <c r="C80" t="s">
+        <v>151</v>
+      </c>
+      <c r="D80" t="s">
+        <v>168</v>
+      </c>
+      <c r="E80" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>170</v>
+      </c>
+      <c r="C81" t="s">
+        <v>171</v>
+      </c>
+      <c r="D81" t="s">
+        <v>172</v>
+      </c>
+      <c r="E81" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>170</v>
+      </c>
+      <c r="C82" t="s">
+        <v>171</v>
+      </c>
+      <c r="D82" t="s">
+        <v>174</v>
+      </c>
+      <c r="E82" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>170</v>
+      </c>
+      <c r="C83" t="s">
+        <v>171</v>
+      </c>
+      <c r="D83" t="s">
+        <v>176</v>
+      </c>
+      <c r="E83" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>170</v>
+      </c>
+      <c r="C84" t="s">
+        <v>171</v>
+      </c>
+      <c r="D84" t="s">
+        <v>178</v>
+      </c>
+      <c r="E84" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>170</v>
+      </c>
+      <c r="C85" t="s">
+        <v>171</v>
+      </c>
+      <c r="D85" t="s">
+        <v>180</v>
+      </c>
+      <c r="E85" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>170</v>
+      </c>
+      <c r="C86" t="s">
+        <v>171</v>
+      </c>
+      <c r="D86" t="s">
+        <v>182</v>
+      </c>
+      <c r="E86" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>170</v>
+      </c>
+      <c r="C87" t="s">
+        <v>171</v>
+      </c>
+      <c r="D87" t="s">
+        <v>184</v>
+      </c>
+      <c r="E87" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>170</v>
+      </c>
+      <c r="C88" t="s">
+        <v>171</v>
+      </c>
+      <c r="D88" t="s">
+        <v>186</v>
+      </c>
+      <c r="E88" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>170</v>
+      </c>
+      <c r="C89" t="s">
+        <v>171</v>
+      </c>
+      <c r="D89" t="s">
+        <v>188</v>
+      </c>
+      <c r="E89" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>170</v>
+      </c>
+      <c r="C90" t="s">
+        <v>171</v>
+      </c>
+      <c r="D90" t="s">
+        <v>190</v>
+      </c>
+      <c r="E90" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>170</v>
+      </c>
+      <c r="C91" t="s">
+        <v>171</v>
+      </c>
+      <c r="D91" t="s">
+        <v>192</v>
+      </c>
+      <c r="E91" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>170</v>
+      </c>
+      <c r="C92" t="s">
+        <v>171</v>
+      </c>
+      <c r="D92" t="s">
+        <v>194</v>
+      </c>
+      <c r="E92" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>170</v>
+      </c>
+      <c r="C93" t="s">
+        <v>171</v>
+      </c>
+      <c r="D93" t="s">
+        <v>196</v>
+      </c>
+      <c r="E93" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>170</v>
+      </c>
+      <c r="C94" t="s">
+        <v>171</v>
+      </c>
+      <c r="D94" t="s">
+        <v>198</v>
+      </c>
+      <c r="E94" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>170</v>
+      </c>
+      <c r="C95" t="s">
+        <v>171</v>
+      </c>
+      <c r="D95" t="s">
+        <v>200</v>
+      </c>
+      <c r="E95" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>170</v>
+      </c>
+      <c r="C96" t="s">
+        <v>171</v>
+      </c>
+      <c r="D96" t="s">
+        <v>202</v>
+      </c>
+      <c r="E96" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>204</v>
+      </c>
+      <c r="C97" t="s">
+        <v>205</v>
+      </c>
+      <c r="D97" t="s">
+        <v>206</v>
+      </c>
+      <c r="E97" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>204</v>
+      </c>
+      <c r="C98" t="s">
+        <v>205</v>
+      </c>
+      <c r="D98" t="s">
+        <v>208</v>
+      </c>
+      <c r="E98" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>204</v>
+      </c>
+      <c r="C99" t="s">
+        <v>205</v>
+      </c>
+      <c r="D99" t="s">
+        <v>210</v>
+      </c>
+      <c r="E99" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>101</v>
+      </c>
+      <c r="B100" t="s">
+        <v>212</v>
+      </c>
+      <c r="C100" t="s">
+        <v>213</v>
+      </c>
+      <c r="D100" t="s">
+        <v>214</v>
+      </c>
+      <c r="E100" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>102</v>
+      </c>
+      <c r="B101" t="s">
+        <v>212</v>
+      </c>
+      <c r="C101" t="s">
+        <v>213</v>
+      </c>
+      <c r="D101" t="s">
+        <v>216</v>
+      </c>
+      <c r="E101" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>103</v>
+      </c>
+      <c r="B102" t="s">
+        <v>212</v>
+      </c>
+      <c r="C102" t="s">
+        <v>213</v>
+      </c>
+      <c r="D102" t="s">
+        <v>218</v>
+      </c>
+      <c r="E102" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>104</v>
+      </c>
+      <c r="B103" t="s">
+        <v>212</v>
+      </c>
+      <c r="C103" t="s">
+        <v>213</v>
+      </c>
+      <c r="D103" t="s">
+        <v>220</v>
+      </c>
+      <c r="E103" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>105</v>
+      </c>
+      <c r="B104" t="s">
+        <v>212</v>
+      </c>
+      <c r="C104" t="s">
+        <v>213</v>
+      </c>
+      <c r="D104" t="s">
+        <v>222</v>
+      </c>
+      <c r="E104" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>106</v>
+      </c>
+      <c r="B105" t="s">
+        <v>212</v>
+      </c>
+      <c r="C105" t="s">
+        <v>213</v>
+      </c>
+      <c r="D105" t="s">
+        <v>224</v>
+      </c>
+      <c r="E105" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>107</v>
+      </c>
+      <c r="B106" t="s">
+        <v>212</v>
+      </c>
+      <c r="C106" t="s">
+        <v>213</v>
+      </c>
+      <c r="D106" t="s">
+        <v>226</v>
+      </c>
+      <c r="E106" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>108</v>
+      </c>
+      <c r="B107" t="s">
+        <v>212</v>
+      </c>
+      <c r="C107" t="s">
+        <v>213</v>
+      </c>
+      <c r="D107" t="s">
+        <v>228</v>
+      </c>
+      <c r="E107" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>109</v>
+      </c>
+      <c r="B108" t="s">
+        <v>212</v>
+      </c>
+      <c r="C108" t="s">
+        <v>213</v>
+      </c>
+      <c r="D108" t="s">
+        <v>230</v>
+      </c>
+      <c r="E108" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>110</v>
+      </c>
+      <c r="B109" t="s">
+        <v>212</v>
+      </c>
+      <c r="C109" t="s">
+        <v>213</v>
+      </c>
+      <c r="D109" t="s">
+        <v>232</v>
+      </c>
+      <c r="E109" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>111</v>
+      </c>
+      <c r="B110" t="s">
+        <v>212</v>
+      </c>
+      <c r="C110" t="s">
+        <v>213</v>
+      </c>
+      <c r="D110" t="s">
+        <v>234</v>
+      </c>
+      <c r="E110" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>112</v>
+      </c>
+      <c r="B111" t="s">
+        <v>212</v>
+      </c>
+      <c r="C111" t="s">
+        <v>213</v>
+      </c>
+      <c r="D111" t="s">
+        <v>236</v>
+      </c>
+      <c r="E111" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>113</v>
+      </c>
+      <c r="B112" t="s">
+        <v>212</v>
+      </c>
+      <c r="C112" t="s">
+        <v>213</v>
+      </c>
+      <c r="D112" t="s">
+        <v>238</v>
+      </c>
+      <c r="E112" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>114</v>
+      </c>
+      <c r="B113" t="s">
+        <v>212</v>
+      </c>
+      <c r="C113" t="s">
+        <v>213</v>
+      </c>
+      <c r="D113" t="s">
+        <v>240</v>
+      </c>
+      <c r="E113" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>115</v>
+      </c>
+      <c r="B114" t="s">
+        <v>212</v>
+      </c>
+      <c r="C114" t="s">
+        <v>213</v>
+      </c>
+      <c r="D114" t="s">
+        <v>242</v>
+      </c>
+      <c r="E114" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>116</v>
+      </c>
+      <c r="B115" t="s">
+        <v>212</v>
+      </c>
+      <c r="C115" t="s">
+        <v>213</v>
+      </c>
+      <c r="D115" t="s">
+        <v>244</v>
+      </c>
+      <c r="E115" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>117</v>
+      </c>
+      <c r="B116" t="s">
+        <v>212</v>
+      </c>
+      <c r="C116" t="s">
+        <v>213</v>
+      </c>
+      <c r="D116" t="s">
+        <v>246</v>
+      </c>
+      <c r="E116" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>118</v>
+      </c>
+      <c r="B117" t="s">
+        <v>212</v>
+      </c>
+      <c r="C117" t="s">
+        <v>213</v>
+      </c>
+      <c r="D117" t="s">
+        <v>248</v>
+      </c>
+      <c r="E117" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>119</v>
+      </c>
+      <c r="B118" t="s">
+        <v>212</v>
+      </c>
+      <c r="C118" t="s">
+        <v>213</v>
+      </c>
+      <c r="D118" t="s">
+        <v>250</v>
+      </c>
+      <c r="E118" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>120</v>
+      </c>
+      <c r="B119" t="s">
+        <v>212</v>
+      </c>
+      <c r="C119" t="s">
+        <v>213</v>
+      </c>
+      <c r="D119" t="s">
+        <v>252</v>
+      </c>
+      <c r="E119" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>121</v>
+      </c>
+      <c r="B120" t="s">
+        <v>212</v>
+      </c>
+      <c r="C120" t="s">
+        <v>213</v>
+      </c>
+      <c r="D120" t="s">
+        <v>254</v>
+      </c>
+      <c r="E120" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>122</v>
+      </c>
+      <c r="B121" t="s">
+        <v>212</v>
+      </c>
+      <c r="C121" t="s">
+        <v>213</v>
+      </c>
+      <c r="D121" t="s">
+        <v>256</v>
+      </c>
+      <c r="E121" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>123</v>
+      </c>
+      <c r="B122" t="s">
+        <v>212</v>
+      </c>
+      <c r="C122" t="s">
+        <v>213</v>
+      </c>
+      <c r="D122" t="s">
+        <v>258</v>
+      </c>
+      <c r="E122" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>124</v>
+      </c>
+      <c r="B123" t="s">
+        <v>212</v>
+      </c>
+      <c r="C123" t="s">
+        <v>213</v>
+      </c>
+      <c r="D123" t="s">
+        <v>260</v>
+      </c>
+      <c r="E123" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>200</v>
+      </c>
+      <c r="B124" t="s">
+        <v>204</v>
+      </c>
+      <c r="C124" t="s">
+        <v>262</v>
+      </c>
+      <c r="D124" t="s">
+        <v>263</v>
+      </c>
+      <c r="E124" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>201</v>
+      </c>
+      <c r="B125" t="s">
+        <v>204</v>
+      </c>
+      <c r="C125" t="s">
+        <v>262</v>
+      </c>
+      <c r="D125" t="s">
+        <v>264</v>
+      </c>
+      <c r="E125" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>202</v>
+      </c>
+      <c r="B126" t="s">
+        <v>204</v>
+      </c>
+      <c r="C126" t="s">
+        <v>262</v>
+      </c>
+      <c r="D126" t="s">
+        <v>265</v>
+      </c>
+      <c r="E126" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>203</v>
+      </c>
+      <c r="B127" t="s">
+        <v>204</v>
+      </c>
+      <c r="C127" t="s">
+        <v>262</v>
+      </c>
+      <c r="D127" t="s">
+        <v>266</v>
+      </c>
+      <c r="E127" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>204</v>
+      </c>
+      <c r="B128" t="s">
+        <v>204</v>
+      </c>
+      <c r="C128" t="s">
+        <v>262</v>
+      </c>
+      <c r="D128" t="s">
+        <v>267</v>
+      </c>
+      <c r="E128" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>301</v>
+      </c>
+      <c r="B129" t="s">
+        <v>268</v>
+      </c>
+      <c r="C129" t="s">
+        <v>268</v>
+      </c>
+      <c r="D129" t="s">
+        <v>269</v>
+      </c>
+      <c r="E129" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>302</v>
+      </c>
+      <c r="B130" t="s">
+        <v>268</v>
+      </c>
+      <c r="C130" t="s">
+        <v>268</v>
+      </c>
+      <c r="D130" t="s">
+        <v>270</v>
+      </c>
+      <c r="E130" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>401</v>
+      </c>
+      <c r="B131" t="s">
+        <v>272</v>
+      </c>
+      <c r="C131" t="s">
+        <v>272</v>
+      </c>
+      <c r="D131" t="s">
+        <v>273</v>
+      </c>
+      <c r="E131" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>402</v>
+      </c>
+      <c r="B132" t="s">
+        <v>272</v>
+      </c>
+      <c r="C132" t="s">
+        <v>272</v>
+      </c>
+      <c r="D132" t="s">
+        <v>275</v>
+      </c>
+      <c r="E132" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>403</v>
+      </c>
+      <c r="B133" t="s">
+        <v>272</v>
+      </c>
+      <c r="C133" t="s">
+        <v>272</v>
+      </c>
+      <c r="D133" t="s">
+        <v>277</v>
+      </c>
+      <c r="E133" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>407</v>
+      </c>
+      <c r="B134" t="s">
+        <v>272</v>
+      </c>
+      <c r="C134" t="s">
+        <v>272</v>
+      </c>
+      <c r="D134" t="s">
+        <v>279</v>
+      </c>
+      <c r="E134" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>408</v>
+      </c>
+      <c r="B135" t="s">
+        <v>272</v>
+      </c>
+      <c r="C135" t="s">
+        <v>272</v>
+      </c>
+      <c r="D135" t="s">
+        <v>281</v>
+      </c>
+      <c r="E135" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>409</v>
+      </c>
+      <c r="B136" t="s">
+        <v>272</v>
+      </c>
+      <c r="C136" t="s">
+        <v>272</v>
+      </c>
+      <c r="D136" t="s">
+        <v>283</v>
+      </c>
+      <c r="E136" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>410</v>
+      </c>
+      <c r="B137" t="s">
+        <v>272</v>
+      </c>
+      <c r="C137" t="s">
+        <v>272</v>
+      </c>
+      <c r="D137" t="s">
+        <v>285</v>
+      </c>
+      <c r="E137" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>411</v>
+      </c>
+      <c r="B138" t="s">
+        <v>272</v>
+      </c>
+      <c r="C138" t="s">
+        <v>272</v>
+      </c>
+      <c r="D138" t="s">
+        <v>287</v>
+      </c>
+      <c r="E138" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>474</v>
+      </c>
+      <c r="B139" t="s">
+        <v>272</v>
+      </c>
+      <c r="C139" t="s">
+        <v>289</v>
+      </c>
+      <c r="D139" t="s">
+        <v>290</v>
+      </c>
+      <c r="E139" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>475</v>
+      </c>
+      <c r="B140" t="s">
+        <v>272</v>
+      </c>
+      <c r="C140" t="s">
+        <v>289</v>
+      </c>
+      <c r="D140" t="s">
+        <v>292</v>
+      </c>
+      <c r="E140" t="s">
+        <v>293</v>
       </c>
     </row>
   </sheetData>
